--- a/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
+++ b/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,738 +397,778 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45422</v>
+        <v>45424</v>
       </c>
       <c r="B2">
-        <v>5260</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45422.01041666666</v>
+        <v>45424.01041666666</v>
       </c>
       <c r="B3">
-        <v>5220</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45422.02083333334</v>
+        <v>45424.02083333334</v>
       </c>
       <c r="B4">
-        <v>5180</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45422.03125</v>
+        <v>45424.03125</v>
       </c>
       <c r="B5">
-        <v>5150</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45422.04166666666</v>
+        <v>45424.04166666666</v>
       </c>
       <c r="B6">
-        <v>5130</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45422.05208333334</v>
+        <v>45424.05208333334</v>
       </c>
       <c r="B7">
-        <v>5120</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45422.0625</v>
+        <v>45424.0625</v>
       </c>
       <c r="B8">
-        <v>5110</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45422.07291666666</v>
+        <v>45424.07291666666</v>
       </c>
       <c r="B9">
-        <v>5110</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45422.08333333334</v>
+        <v>45424.08333333334</v>
       </c>
       <c r="B10">
-        <v>5100</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45422.09375</v>
+        <v>45424.09375</v>
       </c>
       <c r="B11">
-        <v>5120</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45422.10416666666</v>
+        <v>45424.10416666666</v>
       </c>
       <c r="B12">
-        <v>5120</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45422.11458333334</v>
+        <v>45424.11458333334</v>
       </c>
       <c r="B13">
-        <v>5130</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45422.125</v>
+        <v>45424.125</v>
       </c>
       <c r="B14">
-        <v>5130</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45422.13541666666</v>
+        <v>45424.13541666666</v>
       </c>
       <c r="B15">
-        <v>5140</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45422.14583333334</v>
+        <v>45424.14583333334</v>
       </c>
       <c r="B16">
-        <v>5150</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45422.15625</v>
+        <v>45424.15625</v>
       </c>
       <c r="B17">
-        <v>5170</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45422.16666666666</v>
+        <v>45424.16666666666</v>
       </c>
       <c r="B18">
-        <v>5200</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45422.17708333334</v>
+        <v>45424.17708333334</v>
       </c>
       <c r="B19">
-        <v>5250</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45422.1875</v>
+        <v>45424.1875</v>
       </c>
       <c r="B20">
-        <v>5300</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45422.19791666666</v>
+        <v>45424.19791666666</v>
       </c>
       <c r="B21">
-        <v>5370</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45422.20833333334</v>
+        <v>45424.20833333334</v>
       </c>
       <c r="B22">
-        <v>5450</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45422.21875</v>
+        <v>45424.21875</v>
       </c>
       <c r="B23">
-        <v>5530</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45422.22916666666</v>
+        <v>45424.22916666666</v>
       </c>
       <c r="B24">
-        <v>5610</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45422.23958333334</v>
+        <v>45424.23958333334</v>
       </c>
       <c r="B25">
-        <v>5700</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45422.25</v>
+        <v>45424.25</v>
       </c>
       <c r="B26">
-        <v>5780</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45422.26041666666</v>
+        <v>45424.26041666666</v>
       </c>
       <c r="B27">
-        <v>5850</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45422.27083333334</v>
+        <v>45424.27083333334</v>
       </c>
       <c r="B28">
-        <v>5910</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45422.28125</v>
+        <v>45424.28125</v>
       </c>
       <c r="B29">
-        <v>5950</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45422.29166666666</v>
+        <v>45424.29166666666</v>
       </c>
       <c r="B30">
-        <v>5980</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45422.30208333334</v>
+        <v>45424.30208333334</v>
       </c>
       <c r="B31">
-        <v>6000</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45422.3125</v>
+        <v>45424.3125</v>
       </c>
       <c r="B32">
-        <v>6000</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45422.32291666666</v>
+        <v>45424.32291666666</v>
       </c>
       <c r="B33">
-        <v>5980</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45422.33333333334</v>
+        <v>45424.33333333334</v>
       </c>
       <c r="B34">
-        <v>5950</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45422.34375</v>
+        <v>45424.34375</v>
       </c>
       <c r="B35">
-        <v>5910</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45422.35416666666</v>
+        <v>45424.35416666666</v>
       </c>
       <c r="B36">
-        <v>5870</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45422.36458333334</v>
+        <v>45424.36458333334</v>
       </c>
       <c r="B37">
-        <v>5820</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45422.375</v>
+        <v>45424.375</v>
       </c>
       <c r="B38">
-        <v>5770</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45422.38541666666</v>
+        <v>45424.38541666666</v>
       </c>
       <c r="B39">
-        <v>5720</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45422.39583333334</v>
+        <v>45424.39583333334</v>
       </c>
       <c r="B40">
-        <v>5670</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45422.40625</v>
+        <v>45424.40625</v>
       </c>
       <c r="B41">
-        <v>5630</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45422.41666666666</v>
+        <v>45424.41666666666</v>
       </c>
       <c r="B42">
-        <v>5600</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45422.42708333334</v>
+        <v>45424.42708333334</v>
       </c>
       <c r="B43">
-        <v>5570</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45422.4375</v>
+        <v>45424.4375</v>
       </c>
       <c r="B44">
-        <v>5540</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45422.44791666666</v>
+        <v>45424.44791666666</v>
       </c>
       <c r="B45">
-        <v>5520</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45422.45833333334</v>
+        <v>45424.45833333334</v>
       </c>
       <c r="B46">
-        <v>5500</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45422.46875</v>
+        <v>45424.46875</v>
       </c>
       <c r="B47">
-        <v>5480</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45422.47916666666</v>
+        <v>45424.47916666666</v>
       </c>
       <c r="B48">
-        <v>5460</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45422.48958333334</v>
+        <v>45424.48958333334</v>
       </c>
       <c r="B49">
-        <v>5440</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45422.5</v>
+        <v>45424.5</v>
       </c>
       <c r="B50">
-        <v>5430</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45422.51041666666</v>
+        <v>45424.51041666666</v>
       </c>
       <c r="B51">
-        <v>5420</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45422.52083333334</v>
+        <v>45424.52083333334</v>
       </c>
       <c r="B52">
-        <v>5420</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45422.53125</v>
+        <v>45424.53125</v>
       </c>
       <c r="B53">
-        <v>5410</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45422.54166666666</v>
+        <v>45424.54166666666</v>
       </c>
       <c r="B54">
-        <v>5410</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45422.55208333334</v>
+        <v>45424.55208333334</v>
       </c>
       <c r="B55">
-        <v>5400</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45422.5625</v>
+        <v>45424.5625</v>
       </c>
       <c r="B56">
-        <v>5400</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45422.57291666666</v>
+        <v>45424.57291666666</v>
       </c>
       <c r="B57">
-        <v>5390</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45422.58333333334</v>
+        <v>45424.58333333334</v>
       </c>
       <c r="B58">
-        <v>5380</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45422.59375</v>
+        <v>45424.59375</v>
       </c>
       <c r="B59">
-        <v>5370</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45422.60416666666</v>
+        <v>45424.60416666666</v>
       </c>
       <c r="B60">
-        <v>5360</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45422.61458333334</v>
+        <v>45424.61458333334</v>
       </c>
       <c r="B61">
-        <v>5360</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45422.625</v>
+        <v>45424.625</v>
       </c>
       <c r="B62">
-        <v>5370</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45422.63541666666</v>
+        <v>45424.63541666666</v>
       </c>
       <c r="B63">
-        <v>5390</v>
+        <v>4490</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45422.64583333334</v>
+        <v>45424.64583333334</v>
       </c>
       <c r="B64">
-        <v>5430</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45422.65625</v>
+        <v>45424.65625</v>
       </c>
       <c r="B65">
-        <v>5480</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45422.66666666666</v>
+        <v>45424.66666666666</v>
       </c>
       <c r="B66">
-        <v>5530</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45422.67708333334</v>
+        <v>45424.67708333334</v>
       </c>
       <c r="B67">
-        <v>5590</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45422.6875</v>
+        <v>45424.6875</v>
       </c>
       <c r="B68">
-        <v>5640</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45422.69791666666</v>
+        <v>45424.69791666666</v>
       </c>
       <c r="B69">
-        <v>5690</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45422.70833333334</v>
+        <v>45424.70833333334</v>
       </c>
       <c r="B70">
-        <v>5740</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45422.71875</v>
+        <v>45424.71875</v>
       </c>
       <c r="B71">
-        <v>5790</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45422.72916666666</v>
+        <v>45424.72916666666</v>
       </c>
       <c r="B72">
-        <v>5860</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45422.73958333334</v>
+        <v>45424.73958333334</v>
       </c>
       <c r="B73">
-        <v>5950</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45422.75</v>
+        <v>45424.75</v>
       </c>
       <c r="B74">
-        <v>6040</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45422.76041666666</v>
+        <v>45424.76041666666</v>
       </c>
       <c r="B75">
-        <v>6140</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45422.77083333334</v>
+        <v>45424.77083333334</v>
       </c>
       <c r="B76">
-        <v>6240</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45422.78125</v>
+        <v>45424.78125</v>
       </c>
       <c r="B77">
-        <v>6320</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45422.79166666666</v>
+        <v>45424.79166666666</v>
       </c>
       <c r="B78">
-        <v>6410</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45422.80208333334</v>
+        <v>45424.80208333334</v>
       </c>
       <c r="B79">
-        <v>6510</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45422.8125</v>
+        <v>45424.8125</v>
       </c>
       <c r="B80">
-        <v>6600</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45422.82291666666</v>
+        <v>45424.82291666666</v>
       </c>
       <c r="B81">
-        <v>6690</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45422.83333333334</v>
+        <v>45424.83333333334</v>
       </c>
       <c r="B82">
-        <v>6700</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45422.84375</v>
+        <v>45424.84375</v>
       </c>
       <c r="B83">
-        <v>6700</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45422.85416666666</v>
+        <v>45424.85416666666</v>
       </c>
       <c r="B84">
-        <v>6680</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45422.86458333334</v>
+        <v>45424.86458333334</v>
       </c>
       <c r="B85">
-        <v>6610</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45422.875</v>
+        <v>45424.875</v>
       </c>
       <c r="B86">
-        <v>6470</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45422.88541666666</v>
+        <v>45424.88541666666</v>
       </c>
       <c r="B87">
-        <v>6380</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45422.89583333334</v>
+        <v>45424.89583333334</v>
       </c>
       <c r="B88">
-        <v>6230</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45422.90625</v>
+        <v>45424.90625</v>
       </c>
       <c r="B89">
-        <v>6080</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45422.91666666666</v>
+        <v>45424.91666666666</v>
       </c>
       <c r="B90">
-        <v>5880</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45422.92708333334</v>
+        <v>45424.92708333334</v>
       </c>
       <c r="B91">
-        <v>5720</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45422.9375</v>
+        <v>45424.9375</v>
       </c>
       <c r="B92">
-        <v>5630</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45422.94791666666</v>
+        <v>45424.94791666666</v>
       </c>
       <c r="B93">
-        <v>5520</v>
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45424.95833333334</v>
+      </c>
+      <c r="B94">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
+        <v>45424.96875</v>
+      </c>
+      <c r="B95">
+        <v>4990</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
+        <v>45424.97916666666</v>
+      </c>
+      <c r="B96">
+        <v>4930</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
+        <v>45424.98958333334</v>
+      </c>
+      <c r="B97">
+        <v>4880</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
+        <v>45425</v>
+      </c>
+      <c r="B98">
+        <v>4840</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
+++ b/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
@@ -397,778 +397,778 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45424</v>
+        <v>45427</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45424.01041666666</v>
+        <v>45427.01041666666</v>
       </c>
       <c r="B3">
-        <v>4950</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45424.02083333334</v>
+        <v>45427.02083333334</v>
       </c>
       <c r="B4">
-        <v>4900</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45424.03125</v>
+        <v>45427.03125</v>
       </c>
       <c r="B5">
-        <v>4850</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45424.04166666666</v>
+        <v>45427.04166666666</v>
       </c>
       <c r="B6">
-        <v>4800</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45424.05208333334</v>
+        <v>45427.05208333334</v>
       </c>
       <c r="B7">
-        <v>4760</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45424.0625</v>
+        <v>45427.0625</v>
       </c>
       <c r="B8">
-        <v>4730</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45424.07291666666</v>
+        <v>45427.07291666666</v>
       </c>
       <c r="B9">
-        <v>4710</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45424.08333333334</v>
+        <v>45427.08333333334</v>
       </c>
       <c r="B10">
-        <v>4700</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45424.09375</v>
+        <v>45427.09375</v>
       </c>
       <c r="B11">
-        <v>4690</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45424.10416666666</v>
+        <v>45427.10416666666</v>
       </c>
       <c r="B12">
-        <v>4680</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45424.11458333334</v>
+        <v>45427.11458333334</v>
       </c>
       <c r="B13">
-        <v>4680</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45424.125</v>
+        <v>45427.125</v>
       </c>
       <c r="B14">
-        <v>4680</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45424.13541666666</v>
+        <v>45427.13541666666</v>
       </c>
       <c r="B15">
-        <v>4680</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45424.14583333334</v>
+        <v>45427.14583333334</v>
       </c>
       <c r="B16">
-        <v>4670</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45424.15625</v>
+        <v>45427.15625</v>
       </c>
       <c r="B17">
-        <v>4670</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45424.16666666666</v>
+        <v>45427.16666666666</v>
       </c>
       <c r="B18">
-        <v>4670</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45424.17708333334</v>
+        <v>45427.17708333334</v>
       </c>
       <c r="B19">
-        <v>4670</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45424.1875</v>
+        <v>45427.1875</v>
       </c>
       <c r="B20">
-        <v>4670</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45424.19791666666</v>
+        <v>45427.19791666666</v>
       </c>
       <c r="B21">
-        <v>4670</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45424.20833333334</v>
+        <v>45427.20833333334</v>
       </c>
       <c r="B22">
-        <v>4670</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45424.21875</v>
+        <v>45427.21875</v>
       </c>
       <c r="B23">
-        <v>4680</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45424.22916666666</v>
+        <v>45427.22916666666</v>
       </c>
       <c r="B24">
-        <v>4690</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45424.23958333334</v>
+        <v>45427.23958333334</v>
       </c>
       <c r="B25">
-        <v>4700</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45424.25</v>
+        <v>45427.25</v>
       </c>
       <c r="B26">
-        <v>4720</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45424.26041666666</v>
+        <v>45427.26041666666</v>
       </c>
       <c r="B27">
-        <v>4750</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45424.27083333334</v>
+        <v>45427.27083333334</v>
       </c>
       <c r="B28">
-        <v>4770</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45424.28125</v>
+        <v>45427.28125</v>
       </c>
       <c r="B29">
-        <v>4800</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45424.29166666666</v>
+        <v>45427.29166666666</v>
       </c>
       <c r="B30">
-        <v>4820</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45424.30208333334</v>
+        <v>45427.30208333334</v>
       </c>
       <c r="B31">
-        <v>4840</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45424.3125</v>
+        <v>45427.3125</v>
       </c>
       <c r="B32">
-        <v>4850</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45424.32291666666</v>
+        <v>45427.32291666666</v>
       </c>
       <c r="B33">
-        <v>4850</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45424.33333333334</v>
+        <v>45427.33333333334</v>
       </c>
       <c r="B34">
-        <v>4830</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45424.34375</v>
+        <v>45427.34375</v>
       </c>
       <c r="B35">
-        <v>4790</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45424.35416666666</v>
+        <v>45427.35416666666</v>
       </c>
       <c r="B36">
-        <v>4750</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45424.36458333334</v>
+        <v>45427.36458333334</v>
       </c>
       <c r="B37">
-        <v>4700</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45424.375</v>
+        <v>45427.375</v>
       </c>
       <c r="B38">
-        <v>4640</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45424.38541666666</v>
+        <v>45427.38541666666</v>
       </c>
       <c r="B39">
-        <v>4590</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45424.39583333334</v>
+        <v>45427.39583333334</v>
       </c>
       <c r="B40">
-        <v>4540</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45424.40625</v>
+        <v>45427.40625</v>
       </c>
       <c r="B41">
-        <v>4490</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45424.41666666666</v>
+        <v>45427.41666666666</v>
       </c>
       <c r="B42">
-        <v>4460</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45424.42708333334</v>
+        <v>45427.42708333334</v>
       </c>
       <c r="B43">
-        <v>4440</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45424.4375</v>
+        <v>45427.4375</v>
       </c>
       <c r="B44">
-        <v>4420</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45424.44791666666</v>
+        <v>45427.44791666666</v>
       </c>
       <c r="B45">
-        <v>4410</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45424.45833333334</v>
+        <v>45427.45833333334</v>
       </c>
       <c r="B46">
-        <v>4410</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45424.46875</v>
+        <v>45427.46875</v>
       </c>
       <c r="B47">
-        <v>4400</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45424.47916666666</v>
+        <v>45427.47916666666</v>
       </c>
       <c r="B48">
-        <v>4390</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45424.48958333334</v>
+        <v>45427.48958333334</v>
       </c>
       <c r="B49">
-        <v>4380</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45424.5</v>
+        <v>45427.5</v>
       </c>
       <c r="B50">
-        <v>4360</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45424.51041666666</v>
+        <v>45427.51041666666</v>
       </c>
       <c r="B51">
-        <v>4350</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45424.52083333334</v>
+        <v>45427.52083333334</v>
       </c>
       <c r="B52">
-        <v>4340</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45424.53125</v>
+        <v>45427.53125</v>
       </c>
       <c r="B53">
-        <v>4330</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45424.54166666666</v>
+        <v>45427.54166666666</v>
       </c>
       <c r="B54">
-        <v>4330</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45424.55208333334</v>
+        <v>45427.55208333334</v>
       </c>
       <c r="B55">
-        <v>4330</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45424.5625</v>
+        <v>45427.5625</v>
       </c>
       <c r="B56">
-        <v>4340</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45424.57291666666</v>
+        <v>45427.57291666666</v>
       </c>
       <c r="B57">
-        <v>4340</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45424.58333333334</v>
+        <v>45427.58333333334</v>
       </c>
       <c r="B58">
-        <v>4360</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45424.59375</v>
+        <v>45427.59375</v>
       </c>
       <c r="B59">
-        <v>4370</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45424.60416666666</v>
+        <v>45427.60416666666</v>
       </c>
       <c r="B60">
-        <v>4390</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45424.61458333334</v>
+        <v>45427.61458333334</v>
       </c>
       <c r="B61">
-        <v>4410</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45424.625</v>
+        <v>45427.625</v>
       </c>
       <c r="B62">
-        <v>4440</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45424.63541666666</v>
+        <v>45427.63541666666</v>
       </c>
       <c r="B63">
-        <v>4490</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45424.64583333334</v>
+        <v>45427.64583333334</v>
       </c>
       <c r="B64">
-        <v>4550</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45424.65625</v>
+        <v>45427.65625</v>
       </c>
       <c r="B65">
-        <v>4620</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45424.66666666666</v>
+        <v>45427.66666666666</v>
       </c>
       <c r="B66">
-        <v>4690</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45424.67708333334</v>
+        <v>45427.67708333334</v>
       </c>
       <c r="B67">
-        <v>4770</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45424.6875</v>
+        <v>45427.6875</v>
       </c>
       <c r="B68">
-        <v>4850</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45424.69791666666</v>
+        <v>45427.69791666666</v>
       </c>
       <c r="B69">
-        <v>4930</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45424.70833333334</v>
+        <v>45427.70833333334</v>
       </c>
       <c r="B70">
-        <v>5010</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45424.71875</v>
+        <v>45427.71875</v>
       </c>
       <c r="B71">
-        <v>5090</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45424.72916666666</v>
+        <v>45427.72916666666</v>
       </c>
       <c r="B72">
-        <v>5190</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45424.73958333334</v>
+        <v>45427.73958333334</v>
       </c>
       <c r="B73">
-        <v>5290</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45424.75</v>
+        <v>45427.75</v>
       </c>
       <c r="B74">
-        <v>5400</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45424.76041666666</v>
+        <v>45427.76041666666</v>
       </c>
       <c r="B75">
-        <v>5510</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45424.77083333334</v>
+        <v>45427.77083333334</v>
       </c>
       <c r="B76">
-        <v>5630</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45424.78125</v>
+        <v>45427.78125</v>
       </c>
       <c r="B77">
-        <v>5740</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45424.79166666666</v>
+        <v>45427.79166666666</v>
       </c>
       <c r="B78">
-        <v>5860</v>
+        <v>6700</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45424.80208333334</v>
+        <v>45427.80208333334</v>
       </c>
       <c r="B79">
-        <v>5970</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45424.8125</v>
+        <v>45427.8125</v>
       </c>
       <c r="B80">
-        <v>6040</v>
+        <v>6910</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45424.82291666666</v>
+        <v>45427.82291666666</v>
       </c>
       <c r="B81">
-        <v>6110</v>
+        <v>7040</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45424.83333333334</v>
+        <v>45427.83333333334</v>
       </c>
       <c r="B82">
-        <v>6120</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45424.84375</v>
+        <v>45427.84375</v>
       </c>
       <c r="B83">
-        <v>6110</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45424.85416666666</v>
+        <v>45427.85416666666</v>
       </c>
       <c r="B84">
-        <v>6080</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45424.86458333334</v>
+        <v>45427.86458333334</v>
       </c>
       <c r="B85">
-        <v>6000</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45424.875</v>
+        <v>45427.875</v>
       </c>
       <c r="B86">
-        <v>5870</v>
+        <v>6930</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45424.88541666666</v>
+        <v>45427.88541666666</v>
       </c>
       <c r="B87">
-        <v>5750</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45424.89583333334</v>
+        <v>45427.89583333334</v>
       </c>
       <c r="B88">
-        <v>5620</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45424.90625</v>
+        <v>45427.90625</v>
       </c>
       <c r="B89">
-        <v>5490</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45424.91666666666</v>
+        <v>45427.91666666666</v>
       </c>
       <c r="B90">
-        <v>5360</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45424.92708333334</v>
+        <v>45427.92708333334</v>
       </c>
       <c r="B91">
-        <v>5240</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45424.9375</v>
+        <v>45427.9375</v>
       </c>
       <c r="B92">
-        <v>5130</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45424.94791666666</v>
+        <v>45427.94791666666</v>
       </c>
       <c r="B93">
-        <v>5020</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45424.95833333334</v>
+        <v>45427.95833333334</v>
       </c>
       <c r="B94">
-        <v>5050</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45424.96875</v>
+        <v>45427.96875</v>
       </c>
       <c r="B95">
-        <v>4990</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45424.97916666666</v>
+        <v>45427.97916666666</v>
       </c>
       <c r="B96">
-        <v>4930</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45424.98958333334</v>
+        <v>45427.98958333334</v>
       </c>
       <c r="B97">
-        <v>4880</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45425</v>
+        <v>45428</v>
       </c>
       <c r="B98">
-        <v>4840</v>
+        <v>5470</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
+++ b/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,778 +397,738 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45427</v>
+        <v>45431</v>
       </c>
       <c r="B2">
-        <v>5380</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45427.01041666666</v>
+        <v>45431.01041666666</v>
       </c>
       <c r="B3">
-        <v>5340</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45427.02083333334</v>
+        <v>45431.02083333334</v>
       </c>
       <c r="B4">
-        <v>5300</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45427.03125</v>
+        <v>45431.03125</v>
       </c>
       <c r="B5">
-        <v>5260</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45427.04166666666</v>
+        <v>45431.04166666666</v>
       </c>
       <c r="B6">
-        <v>5230</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45427.05208333334</v>
+        <v>45431.05208333334</v>
       </c>
       <c r="B7">
-        <v>5210</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45427.0625</v>
+        <v>45431.0625</v>
       </c>
       <c r="B8">
-        <v>5190</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45427.07291666666</v>
+        <v>45431.07291666666</v>
       </c>
       <c r="B9">
-        <v>5160</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45427.08333333334</v>
+        <v>45431.08333333334</v>
       </c>
       <c r="B10">
-        <v>5120</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45427.09375</v>
+        <v>45431.09375</v>
       </c>
       <c r="B11">
-        <v>5100</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45427.10416666666</v>
+        <v>45431.10416666666</v>
       </c>
       <c r="B12">
-        <v>5100</v>
+        <v>4680</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45427.11458333334</v>
+        <v>45431.11458333334</v>
       </c>
       <c r="B13">
-        <v>5110</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45427.125</v>
+        <v>45431.125</v>
       </c>
       <c r="B14">
-        <v>5130</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45427.13541666666</v>
+        <v>45431.13541666666</v>
       </c>
       <c r="B15">
-        <v>5150</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45427.14583333334</v>
+        <v>45431.14583333334</v>
       </c>
       <c r="B16">
-        <v>5160</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45427.15625</v>
+        <v>45431.15625</v>
       </c>
       <c r="B17">
-        <v>5170</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45427.16666666666</v>
+        <v>45431.16666666666</v>
       </c>
       <c r="B18">
-        <v>5190</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45427.17708333334</v>
+        <v>45431.17708333334</v>
       </c>
       <c r="B19">
-        <v>5220</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45427.1875</v>
+        <v>45431.1875</v>
       </c>
       <c r="B20">
-        <v>5260</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45427.19791666666</v>
+        <v>45431.19791666666</v>
       </c>
       <c r="B21">
-        <v>5330</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45427.20833333334</v>
+        <v>45431.20833333334</v>
       </c>
       <c r="B22">
-        <v>5420</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45427.21875</v>
+        <v>45431.21875</v>
       </c>
       <c r="B23">
-        <v>5520</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45427.22916666666</v>
+        <v>45431.22916666666</v>
       </c>
       <c r="B24">
-        <v>5620</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45427.23958333334</v>
+        <v>45431.23958333334</v>
       </c>
       <c r="B25">
-        <v>5750</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45427.25</v>
+        <v>45431.25</v>
       </c>
       <c r="B26">
-        <v>5900</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45427.26041666666</v>
+        <v>45431.26041666666</v>
       </c>
       <c r="B27">
-        <v>6030</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45427.27083333334</v>
+        <v>45431.27083333334</v>
       </c>
       <c r="B28">
-        <v>6110</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45427.28125</v>
+        <v>45431.28125</v>
       </c>
       <c r="B29">
-        <v>6160</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45427.29166666666</v>
+        <v>45431.29166666666</v>
       </c>
       <c r="B30">
-        <v>6180</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45427.30208333334</v>
+        <v>45431.30208333334</v>
       </c>
       <c r="B31">
-        <v>6180</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45427.3125</v>
+        <v>45431.3125</v>
       </c>
       <c r="B32">
-        <v>6170</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45427.32291666666</v>
+        <v>45431.32291666666</v>
       </c>
       <c r="B33">
-        <v>6140</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45427.33333333334</v>
+        <v>45431.33333333334</v>
       </c>
       <c r="B34">
-        <v>6060</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45427.34375</v>
+        <v>45431.34375</v>
       </c>
       <c r="B35">
-        <v>5970</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45427.35416666666</v>
+        <v>45431.35416666666</v>
       </c>
       <c r="B36">
-        <v>5880</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45427.36458333334</v>
+        <v>45431.36458333334</v>
       </c>
       <c r="B37">
-        <v>5780</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45427.375</v>
+        <v>45431.375</v>
       </c>
       <c r="B38">
-        <v>5710</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45427.38541666666</v>
+        <v>45431.38541666666</v>
       </c>
       <c r="B39">
-        <v>5630</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45427.39583333334</v>
+        <v>45431.39583333334</v>
       </c>
       <c r="B40">
-        <v>5560</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45427.40625</v>
+        <v>45431.40625</v>
       </c>
       <c r="B41">
-        <v>5500</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45427.41666666666</v>
+        <v>45431.41666666666</v>
       </c>
       <c r="B42">
-        <v>5440</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45427.42708333334</v>
+        <v>45431.42708333334</v>
       </c>
       <c r="B43">
-        <v>5420</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45427.4375</v>
+        <v>45431.4375</v>
       </c>
       <c r="B44">
-        <v>5400</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45427.44791666666</v>
+        <v>45431.44791666666</v>
       </c>
       <c r="B45">
-        <v>5390</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45427.45833333334</v>
+        <v>45431.45833333334</v>
       </c>
       <c r="B46">
-        <v>5380</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45427.46875</v>
+        <v>45431.46875</v>
       </c>
       <c r="B47">
-        <v>5380</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45427.47916666666</v>
+        <v>45431.47916666666</v>
       </c>
       <c r="B48">
-        <v>5380</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45427.48958333334</v>
+        <v>45431.48958333334</v>
       </c>
       <c r="B49">
-        <v>5380</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45427.5</v>
+        <v>45431.5</v>
       </c>
       <c r="B50">
-        <v>5390</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45427.51041666666</v>
+        <v>45431.51041666666</v>
       </c>
       <c r="B51">
-        <v>5400</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45427.52083333334</v>
+        <v>45431.52083333334</v>
       </c>
       <c r="B52">
-        <v>5400</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45427.53125</v>
+        <v>45431.53125</v>
       </c>
       <c r="B53">
-        <v>5380</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45427.54166666666</v>
+        <v>45431.54166666666</v>
       </c>
       <c r="B54">
-        <v>5340</v>
+        <v>3940</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45427.55208333334</v>
+        <v>45431.55208333334</v>
       </c>
       <c r="B55">
-        <v>5320</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45427.5625</v>
+        <v>45431.5625</v>
       </c>
       <c r="B56">
-        <v>5310</v>
+        <v>3970</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45427.57291666666</v>
+        <v>45431.57291666666</v>
       </c>
       <c r="B57">
-        <v>5310</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45427.58333333334</v>
+        <v>45431.58333333334</v>
       </c>
       <c r="B58">
-        <v>5310</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45427.59375</v>
+        <v>45431.59375</v>
       </c>
       <c r="B59">
-        <v>5310</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45427.60416666666</v>
+        <v>45431.60416666666</v>
       </c>
       <c r="B60">
-        <v>5320</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45427.61458333334</v>
+        <v>45431.61458333334</v>
       </c>
       <c r="B61">
-        <v>5340</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45427.625</v>
+        <v>45431.625</v>
       </c>
       <c r="B62">
-        <v>5390</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45427.63541666666</v>
+        <v>45431.63541666666</v>
       </c>
       <c r="B63">
-        <v>5450</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45427.64583333334</v>
+        <v>45431.64583333334</v>
       </c>
       <c r="B64">
-        <v>5500</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45427.65625</v>
+        <v>45431.65625</v>
       </c>
       <c r="B65">
-        <v>5560</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45427.66666666666</v>
+        <v>45431.66666666666</v>
       </c>
       <c r="B66">
-        <v>5610</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45427.67708333334</v>
+        <v>45431.67708333334</v>
       </c>
       <c r="B67">
-        <v>5660</v>
+        <v>4560</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45427.6875</v>
+        <v>45431.6875</v>
       </c>
       <c r="B68">
-        <v>5700</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45427.69791666666</v>
+        <v>45431.69791666666</v>
       </c>
       <c r="B69">
-        <v>5770</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45427.70833333334</v>
+        <v>45431.70833333334</v>
       </c>
       <c r="B70">
-        <v>5890</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45427.71875</v>
+        <v>45431.71875</v>
       </c>
       <c r="B71">
-        <v>6000</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45427.72916666666</v>
+        <v>45431.72916666666</v>
       </c>
       <c r="B72">
-        <v>6110</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45427.73958333334</v>
+        <v>45431.73958333334</v>
       </c>
       <c r="B73">
-        <v>6220</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45427.75</v>
+        <v>45431.75</v>
       </c>
       <c r="B74">
-        <v>6320</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45427.76041666666</v>
+        <v>45431.76041666666</v>
       </c>
       <c r="B75">
-        <v>6410</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45427.77083333334</v>
+        <v>45431.77083333334</v>
       </c>
       <c r="B76">
-        <v>6500</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45427.78125</v>
+        <v>45431.78125</v>
       </c>
       <c r="B77">
-        <v>6600</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45427.79166666666</v>
+        <v>45431.79166666666</v>
       </c>
       <c r="B78">
-        <v>6700</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45427.80208333334</v>
+        <v>45431.80208333334</v>
       </c>
       <c r="B79">
-        <v>6810</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45427.8125</v>
+        <v>45431.8125</v>
       </c>
       <c r="B80">
-        <v>6910</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45427.82291666666</v>
+        <v>45431.82291666666</v>
       </c>
       <c r="B81">
-        <v>7040</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45427.83333333334</v>
+        <v>45431.83333333334</v>
       </c>
       <c r="B82">
-        <v>7130</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45427.84375</v>
+        <v>45431.84375</v>
       </c>
       <c r="B83">
-        <v>7130</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45427.85416666666</v>
+        <v>45431.85416666666</v>
       </c>
       <c r="B84">
-        <v>7120</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45427.86458333334</v>
+        <v>45431.86458333334</v>
       </c>
       <c r="B85">
-        <v>7080</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45427.875</v>
+        <v>45431.875</v>
       </c>
       <c r="B86">
-        <v>6930</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45427.88541666666</v>
+        <v>45431.88541666666</v>
       </c>
       <c r="B87">
-        <v>6720</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45427.89583333334</v>
+        <v>45431.89583333334</v>
       </c>
       <c r="B88">
-        <v>6480</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45427.90625</v>
+        <v>45431.90625</v>
       </c>
       <c r="B89">
-        <v>6300</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45427.91666666666</v>
+        <v>45431.91666666666</v>
       </c>
       <c r="B90">
-        <v>6140</v>
+        <v>5310</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45427.92708333334</v>
+        <v>45431.92708333334</v>
       </c>
       <c r="B91">
-        <v>6020</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45427.9375</v>
+        <v>45431.9375</v>
       </c>
       <c r="B92">
-        <v>5910</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45427.94791666666</v>
+        <v>45431.94791666666</v>
       </c>
       <c r="B93">
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2">
-        <v>45427.95833333334</v>
-      </c>
-      <c r="B94">
-        <v>5720</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
-        <v>45427.96875</v>
-      </c>
-      <c r="B95">
-        <v>5640</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2">
-        <v>45427.97916666666</v>
-      </c>
-      <c r="B96">
-        <v>5570</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2">
-        <v>45427.98958333334</v>
-      </c>
-      <c r="B97">
-        <v>5520</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
-        <v>45428</v>
-      </c>
-      <c r="B98">
-        <v>5470</v>
+        <v>4970</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
+++ b/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,738 +397,778 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45431</v>
+        <v>45435</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45431.01041666666</v>
+        <v>45435.01041666666</v>
       </c>
       <c r="B3">
-        <v>4940</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45431.02083333334</v>
+        <v>45435.02083333334</v>
       </c>
       <c r="B4">
-        <v>4880</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45431.03125</v>
+        <v>45435.03125</v>
       </c>
       <c r="B5">
-        <v>4840</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45431.04166666666</v>
+        <v>45435.04166666666</v>
       </c>
       <c r="B6">
-        <v>4800</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45431.05208333334</v>
+        <v>45435.05208333334</v>
       </c>
       <c r="B7">
-        <v>4770</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45431.0625</v>
+        <v>45435.0625</v>
       </c>
       <c r="B8">
-        <v>4740</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45431.07291666666</v>
+        <v>45435.07291666666</v>
       </c>
       <c r="B9">
-        <v>4720</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45431.08333333334</v>
+        <v>45435.08333333334</v>
       </c>
       <c r="B10">
-        <v>4700</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45431.09375</v>
+        <v>45435.09375</v>
       </c>
       <c r="B11">
-        <v>4690</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45431.10416666666</v>
+        <v>45435.10416666666</v>
       </c>
       <c r="B12">
-        <v>4680</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45431.11458333334</v>
+        <v>45435.11458333334</v>
       </c>
       <c r="B13">
-        <v>4670</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45431.125</v>
+        <v>45435.125</v>
       </c>
       <c r="B14">
-        <v>4660</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45431.13541666666</v>
+        <v>45435.13541666666</v>
       </c>
       <c r="B15">
-        <v>4650</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45431.14583333334</v>
+        <v>45435.14583333334</v>
       </c>
       <c r="B16">
-        <v>4650</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45431.15625</v>
+        <v>45435.15625</v>
       </c>
       <c r="B17">
-        <v>4650</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45431.16666666666</v>
+        <v>45435.16666666666</v>
       </c>
       <c r="B18">
-        <v>4650</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45431.17708333334</v>
+        <v>45435.17708333334</v>
       </c>
       <c r="B19">
-        <v>4650</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45431.1875</v>
+        <v>45435.1875</v>
       </c>
       <c r="B20">
-        <v>4650</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45431.19791666666</v>
+        <v>45435.19791666666</v>
       </c>
       <c r="B21">
-        <v>4640</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45431.20833333334</v>
+        <v>45435.20833333334</v>
       </c>
       <c r="B22">
-        <v>4630</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45431.21875</v>
+        <v>45435.21875</v>
       </c>
       <c r="B23">
-        <v>4620</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45431.22916666666</v>
+        <v>45435.22916666666</v>
       </c>
       <c r="B24">
-        <v>4610</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45431.23958333334</v>
+        <v>45435.23958333334</v>
       </c>
       <c r="B25">
-        <v>4600</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45431.25</v>
+        <v>45435.25</v>
       </c>
       <c r="B26">
-        <v>4600</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45431.26041666666</v>
+        <v>45435.26041666666</v>
       </c>
       <c r="B27">
-        <v>4600</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45431.27083333334</v>
+        <v>45435.27083333334</v>
       </c>
       <c r="B28">
-        <v>4600</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45431.28125</v>
+        <v>45435.28125</v>
       </c>
       <c r="B29">
-        <v>4600</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45431.29166666666</v>
+        <v>45435.29166666666</v>
       </c>
       <c r="B30">
-        <v>4600</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45431.30208333334</v>
+        <v>45435.30208333334</v>
       </c>
       <c r="B31">
-        <v>4600</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45431.3125</v>
+        <v>45435.3125</v>
       </c>
       <c r="B32">
-        <v>4600</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45431.32291666666</v>
+        <v>45435.32291666666</v>
       </c>
       <c r="B33">
-        <v>4590</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45431.33333333334</v>
+        <v>45435.33333333334</v>
       </c>
       <c r="B34">
-        <v>4560</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45431.34375</v>
+        <v>45435.34375</v>
       </c>
       <c r="B35">
-        <v>4530</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45431.35416666666</v>
+        <v>45435.35416666666</v>
       </c>
       <c r="B36">
-        <v>4480</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45431.36458333334</v>
+        <v>45435.36458333334</v>
       </c>
       <c r="B37">
-        <v>4430</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45431.375</v>
+        <v>45435.375</v>
       </c>
       <c r="B38">
-        <v>4380</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45431.38541666666</v>
+        <v>45435.38541666666</v>
       </c>
       <c r="B39">
-        <v>4320</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45431.39583333334</v>
+        <v>45435.39583333334</v>
       </c>
       <c r="B40">
-        <v>4270</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45431.40625</v>
+        <v>45435.40625</v>
       </c>
       <c r="B41">
-        <v>4230</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45431.41666666666</v>
+        <v>45435.41666666666</v>
       </c>
       <c r="B42">
-        <v>4190</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45431.42708333334</v>
+        <v>45435.42708333334</v>
       </c>
       <c r="B43">
-        <v>4150</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45431.4375</v>
+        <v>45435.4375</v>
       </c>
       <c r="B44">
-        <v>4120</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45431.44791666666</v>
+        <v>45435.44791666666</v>
       </c>
       <c r="B45">
-        <v>4100</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45431.45833333334</v>
+        <v>45435.45833333334</v>
       </c>
       <c r="B46">
-        <v>4070</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45431.46875</v>
+        <v>45435.46875</v>
       </c>
       <c r="B47">
-        <v>4050</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45431.47916666666</v>
+        <v>45435.47916666666</v>
       </c>
       <c r="B48">
-        <v>4020</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45431.48958333334</v>
+        <v>45435.48958333334</v>
       </c>
       <c r="B49">
-        <v>4000</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45431.5</v>
+        <v>45435.5</v>
       </c>
       <c r="B50">
-        <v>3970</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45431.51041666666</v>
+        <v>45435.51041666666</v>
       </c>
       <c r="B51">
-        <v>3950</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45431.52083333334</v>
+        <v>45435.52083333334</v>
       </c>
       <c r="B52">
-        <v>3940</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45431.53125</v>
+        <v>45435.53125</v>
       </c>
       <c r="B53">
-        <v>3940</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45431.54166666666</v>
+        <v>45435.54166666666</v>
       </c>
       <c r="B54">
-        <v>3940</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45431.55208333334</v>
+        <v>45435.55208333334</v>
       </c>
       <c r="B55">
-        <v>3950</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45431.5625</v>
+        <v>45435.5625</v>
       </c>
       <c r="B56">
-        <v>3970</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45431.57291666666</v>
+        <v>45435.57291666666</v>
       </c>
       <c r="B57">
-        <v>3990</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45431.58333333334</v>
+        <v>45435.58333333334</v>
       </c>
       <c r="B58">
-        <v>4010</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45431.59375</v>
+        <v>45435.59375</v>
       </c>
       <c r="B59">
-        <v>4030</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45431.60416666666</v>
+        <v>45435.60416666666</v>
       </c>
       <c r="B60">
-        <v>4060</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45431.61458333334</v>
+        <v>45435.61458333334</v>
       </c>
       <c r="B61">
-        <v>4100</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45431.625</v>
+        <v>45435.625</v>
       </c>
       <c r="B62">
-        <v>4150</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45431.63541666666</v>
+        <v>45435.63541666666</v>
       </c>
       <c r="B63">
-        <v>4210</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45431.64583333334</v>
+        <v>45435.64583333334</v>
       </c>
       <c r="B64">
-        <v>4280</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45431.65625</v>
+        <v>45435.65625</v>
       </c>
       <c r="B65">
-        <v>4370</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45431.66666666666</v>
+        <v>45435.66666666666</v>
       </c>
       <c r="B66">
-        <v>4470</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45431.67708333334</v>
+        <v>45435.67708333334</v>
       </c>
       <c r="B67">
-        <v>4560</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45431.6875</v>
+        <v>45435.6875</v>
       </c>
       <c r="B68">
-        <v>4650</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45431.69791666666</v>
+        <v>45435.69791666666</v>
       </c>
       <c r="B69">
-        <v>4730</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45431.70833333334</v>
+        <v>45435.70833333334</v>
       </c>
       <c r="B70">
-        <v>4810</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45431.71875</v>
+        <v>45435.71875</v>
       </c>
       <c r="B71">
-        <v>4890</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45431.72916666666</v>
+        <v>45435.72916666666</v>
       </c>
       <c r="B72">
-        <v>4980</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45431.73958333334</v>
+        <v>45435.73958333334</v>
       </c>
       <c r="B73">
-        <v>5100</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45431.75</v>
+        <v>45435.75</v>
       </c>
       <c r="B74">
-        <v>5220</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45431.76041666666</v>
+        <v>45435.76041666666</v>
       </c>
       <c r="B75">
-        <v>5350</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45431.77083333334</v>
+        <v>45435.77083333334</v>
       </c>
       <c r="B76">
-        <v>5470</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45431.78125</v>
+        <v>45435.78125</v>
       </c>
       <c r="B77">
-        <v>5570</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45431.79166666666</v>
+        <v>45435.79166666666</v>
       </c>
       <c r="B78">
-        <v>5660</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45431.80208333334</v>
+        <v>45435.80208333334</v>
       </c>
       <c r="B79">
-        <v>5760</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45431.8125</v>
+        <v>45435.8125</v>
       </c>
       <c r="B80">
-        <v>5850</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45431.82291666666</v>
+        <v>45435.82291666666</v>
       </c>
       <c r="B81">
-        <v>5970</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45431.83333333334</v>
+        <v>45435.83333333334</v>
       </c>
       <c r="B82">
-        <v>6030</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45431.84375</v>
+        <v>45435.84375</v>
       </c>
       <c r="B83">
-        <v>6050</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45431.85416666666</v>
+        <v>45435.85416666666</v>
       </c>
       <c r="B84">
-        <v>6050</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45431.86458333334</v>
+        <v>45435.86458333334</v>
       </c>
       <c r="B85">
-        <v>6000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45431.875</v>
+        <v>45435.875</v>
       </c>
       <c r="B86">
-        <v>5890</v>
+        <v>6830</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45431.88541666666</v>
+        <v>45435.88541666666</v>
       </c>
       <c r="B87">
-        <v>5830</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45431.89583333334</v>
+        <v>45435.89583333334</v>
       </c>
       <c r="B88">
-        <v>5720</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45431.90625</v>
+        <v>45435.90625</v>
       </c>
       <c r="B89">
-        <v>5560</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45431.91666666666</v>
+        <v>45435.91666666666</v>
       </c>
       <c r="B90">
-        <v>5310</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45431.92708333334</v>
+        <v>45435.92708333334</v>
       </c>
       <c r="B91">
-        <v>5180</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45431.9375</v>
+        <v>45435.9375</v>
       </c>
       <c r="B92">
-        <v>5080</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45431.94791666666</v>
+        <v>45435.94791666666</v>
       </c>
       <c r="B93">
-        <v>4970</v>
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45435.95833333334</v>
+      </c>
+      <c r="B94">
+        <v>5570</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
+        <v>45435.96875</v>
+      </c>
+      <c r="B95">
+        <v>5530</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
+        <v>45435.97916666666</v>
+      </c>
+      <c r="B96">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
+        <v>45435.98958333334</v>
+      </c>
+      <c r="B97">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B98">
+        <v>5350</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
+++ b/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
@@ -397,247 +397,247 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45435</v>
+        <v>45454</v>
       </c>
       <c r="B2">
-        <v>5330</v>
+        <v>5780</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45435.01041666666</v>
+        <v>45454.01041666666</v>
       </c>
       <c r="B3">
-        <v>5290</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45435.02083333334</v>
+        <v>45454.02083333334</v>
       </c>
       <c r="B4">
-        <v>5250</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45435.03125</v>
+        <v>45454.03125</v>
       </c>
       <c r="B5">
-        <v>5210</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45435.04166666666</v>
+        <v>45454.04166666666</v>
       </c>
       <c r="B6">
-        <v>5180</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45435.05208333334</v>
+        <v>45454.05208333334</v>
       </c>
       <c r="B7">
-        <v>5150</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45435.0625</v>
+        <v>45454.0625</v>
       </c>
       <c r="B8">
-        <v>5130</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45435.07291666666</v>
+        <v>45454.07291666666</v>
       </c>
       <c r="B9">
-        <v>5120</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45435.08333333334</v>
+        <v>45454.08333333334</v>
       </c>
       <c r="B10">
-        <v>5120</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45435.09375</v>
+        <v>45454.09375</v>
       </c>
       <c r="B11">
-        <v>5130</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45435.10416666666</v>
+        <v>45454.10416666666</v>
       </c>
       <c r="B12">
-        <v>5130</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45435.11458333334</v>
+        <v>45454.11458333334</v>
       </c>
       <c r="B13">
-        <v>5140</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45435.125</v>
+        <v>45454.125</v>
       </c>
       <c r="B14">
-        <v>5140</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45435.13541666666</v>
+        <v>45454.13541666666</v>
       </c>
       <c r="B15">
-        <v>5140</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45435.14583333334</v>
+        <v>45454.14583333334</v>
       </c>
       <c r="B16">
-        <v>5140</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45435.15625</v>
+        <v>45454.15625</v>
       </c>
       <c r="B17">
-        <v>5150</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45435.16666666666</v>
+        <v>45454.16666666666</v>
       </c>
       <c r="B18">
-        <v>5170</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45435.17708333334</v>
+        <v>45454.17708333334</v>
       </c>
       <c r="B19">
-        <v>5210</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45435.1875</v>
+        <v>45454.1875</v>
       </c>
       <c r="B20">
-        <v>5260</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45435.19791666666</v>
+        <v>45454.19791666666</v>
       </c>
       <c r="B21">
-        <v>5330</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45435.20833333334</v>
+        <v>45454.20833333334</v>
       </c>
       <c r="B22">
-        <v>5420</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45435.21875</v>
+        <v>45454.21875</v>
       </c>
       <c r="B23">
-        <v>5530</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45435.22916666666</v>
+        <v>45454.22916666666</v>
       </c>
       <c r="B24">
-        <v>5660</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45435.23958333334</v>
+        <v>45454.23958333334</v>
       </c>
       <c r="B25">
-        <v>5800</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45435.25</v>
+        <v>45454.25</v>
       </c>
       <c r="B26">
-        <v>5950</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45435.26041666666</v>
+        <v>45454.26041666666</v>
       </c>
       <c r="B27">
-        <v>6090</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45435.27083333334</v>
+        <v>45454.27083333334</v>
       </c>
       <c r="B28">
-        <v>6220</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45435.28125</v>
+        <v>45454.28125</v>
       </c>
       <c r="B29">
-        <v>6340</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45435.29166666666</v>
+        <v>45454.29166666666</v>
       </c>
       <c r="B30">
-        <v>6440</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45435.30208333334</v>
+        <v>45454.30208333334</v>
       </c>
       <c r="B31">
-        <v>6520</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45435.3125</v>
+        <v>45454.3125</v>
       </c>
       <c r="B32">
         <v>6570</v>
@@ -645,530 +645,530 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45435.32291666666</v>
+        <v>45454.32291666666</v>
       </c>
       <c r="B33">
-        <v>6590</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45435.33333333334</v>
+        <v>45454.33333333334</v>
       </c>
       <c r="B34">
-        <v>6580</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45435.34375</v>
+        <v>45454.34375</v>
       </c>
       <c r="B35">
-        <v>6550</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45435.35416666666</v>
+        <v>45454.35416666666</v>
       </c>
       <c r="B36">
-        <v>6500</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45435.36458333334</v>
+        <v>45454.36458333334</v>
       </c>
       <c r="B37">
-        <v>6440</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45435.375</v>
+        <v>45454.375</v>
       </c>
       <c r="B38">
-        <v>6380</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45435.38541666666</v>
+        <v>45454.38541666666</v>
       </c>
       <c r="B39">
-        <v>6310</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45435.39583333334</v>
+        <v>45454.39583333334</v>
       </c>
       <c r="B40">
-        <v>6250</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45435.40625</v>
+        <v>45454.40625</v>
       </c>
       <c r="B41">
-        <v>6180</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45435.41666666666</v>
+        <v>45454.41666666666</v>
       </c>
       <c r="B42">
-        <v>6130</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45435.42708333334</v>
+        <v>45454.42708333334</v>
       </c>
       <c r="B43">
-        <v>6080</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45435.4375</v>
+        <v>45454.4375</v>
       </c>
       <c r="B44">
-        <v>6030</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45435.44791666666</v>
+        <v>45454.44791666666</v>
       </c>
       <c r="B45">
-        <v>5990</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45435.45833333334</v>
+        <v>45454.45833333334</v>
       </c>
       <c r="B46">
-        <v>5950</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45435.46875</v>
+        <v>45454.46875</v>
       </c>
       <c r="B47">
-        <v>5910</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45435.47916666666</v>
+        <v>45454.47916666666</v>
       </c>
       <c r="B48">
-        <v>5870</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45435.48958333334</v>
+        <v>45454.48958333334</v>
       </c>
       <c r="B49">
-        <v>5840</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45435.5</v>
+        <v>45454.5</v>
       </c>
       <c r="B50">
-        <v>5800</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45435.51041666666</v>
+        <v>45454.51041666666</v>
       </c>
       <c r="B51">
-        <v>5780</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45435.52083333334</v>
+        <v>45454.52083333334</v>
       </c>
       <c r="B52">
-        <v>5760</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45435.53125</v>
+        <v>45454.53125</v>
       </c>
       <c r="B53">
-        <v>5750</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45435.54166666666</v>
+        <v>45454.54166666666</v>
       </c>
       <c r="B54">
-        <v>5740</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45435.55208333334</v>
+        <v>45454.55208333334</v>
       </c>
       <c r="B55">
-        <v>5740</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45435.5625</v>
+        <v>45454.5625</v>
       </c>
       <c r="B56">
-        <v>5740</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45435.57291666666</v>
+        <v>45454.57291666666</v>
       </c>
       <c r="B57">
-        <v>5750</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45435.58333333334</v>
+        <v>45454.58333333334</v>
       </c>
       <c r="B58">
-        <v>5750</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45435.59375</v>
+        <v>45454.59375</v>
       </c>
       <c r="B59">
-        <v>5750</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45435.60416666666</v>
+        <v>45454.60416666666</v>
       </c>
       <c r="B60">
-        <v>5760</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45435.61458333334</v>
+        <v>45454.61458333334</v>
       </c>
       <c r="B61">
-        <v>5780</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45435.625</v>
+        <v>45454.625</v>
       </c>
       <c r="B62">
-        <v>5810</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45435.63541666666</v>
+        <v>45454.63541666666</v>
       </c>
       <c r="B63">
-        <v>5850</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45435.64583333334</v>
+        <v>45454.64583333334</v>
       </c>
       <c r="B64">
-        <v>5900</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45435.65625</v>
+        <v>45454.65625</v>
       </c>
       <c r="B65">
-        <v>5960</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45435.66666666666</v>
+        <v>45454.66666666666</v>
       </c>
       <c r="B66">
-        <v>6010</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45435.67708333334</v>
+        <v>45454.67708333334</v>
       </c>
       <c r="B67">
-        <v>6060</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45435.6875</v>
+        <v>45454.6875</v>
       </c>
       <c r="B68">
-        <v>6100</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45435.69791666666</v>
+        <v>45454.69791666666</v>
       </c>
       <c r="B69">
-        <v>6130</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45435.70833333334</v>
+        <v>45454.70833333334</v>
       </c>
       <c r="B70">
-        <v>6160</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45435.71875</v>
+        <v>45454.71875</v>
       </c>
       <c r="B71">
-        <v>6200</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45435.72916666666</v>
+        <v>45454.72916666666</v>
       </c>
       <c r="B72">
-        <v>6260</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45435.73958333334</v>
+        <v>45454.73958333334</v>
       </c>
       <c r="B73">
-        <v>6350</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45435.75</v>
+        <v>45454.75</v>
       </c>
       <c r="B74">
-        <v>6450</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45435.76041666666</v>
+        <v>45454.76041666666</v>
       </c>
       <c r="B75">
-        <v>6550</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45435.77083333334</v>
+        <v>45454.77083333334</v>
       </c>
       <c r="B76">
-        <v>6630</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45435.78125</v>
+        <v>45454.78125</v>
       </c>
       <c r="B77">
-        <v>6690</v>
+        <v>7130</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45435.79166666666</v>
+        <v>45454.79166666666</v>
       </c>
       <c r="B78">
-        <v>6760</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45435.80208333334</v>
+        <v>45454.80208333334</v>
       </c>
       <c r="B79">
-        <v>6840</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45435.8125</v>
+        <v>45454.8125</v>
       </c>
       <c r="B80">
-        <v>6920</v>
+        <v>7240</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45435.82291666666</v>
+        <v>45454.82291666666</v>
       </c>
       <c r="B81">
-        <v>7030</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45435.83333333334</v>
+        <v>45454.83333333334</v>
       </c>
       <c r="B82">
-        <v>7100</v>
+        <v>7330</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45435.84375</v>
+        <v>45454.84375</v>
       </c>
       <c r="B83">
-        <v>7100</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45435.85416666666</v>
+        <v>45454.85416666666</v>
       </c>
       <c r="B84">
-        <v>7090</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45435.86458333334</v>
+        <v>45454.86458333334</v>
       </c>
       <c r="B85">
-        <v>7000</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45435.875</v>
+        <v>45454.875</v>
       </c>
       <c r="B86">
-        <v>6830</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45435.88541666666</v>
+        <v>45454.88541666666</v>
       </c>
       <c r="B87">
-        <v>6720</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45435.89583333334</v>
+        <v>45454.89583333334</v>
       </c>
       <c r="B88">
-        <v>6580</v>
+        <v>6850</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45435.90625</v>
+        <v>45454.90625</v>
       </c>
       <c r="B89">
-        <v>6420</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45435.91666666666</v>
+        <v>45454.91666666666</v>
       </c>
       <c r="B90">
-        <v>6190</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45435.92708333334</v>
+        <v>45454.92708333334</v>
       </c>
       <c r="B91">
-        <v>6020</v>
+        <v>6340</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45435.9375</v>
+        <v>45454.9375</v>
       </c>
       <c r="B92">
-        <v>5930</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45435.94791666666</v>
+        <v>45454.94791666666</v>
       </c>
       <c r="B93">
-        <v>5820</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="2">
-        <v>45435.95833333334</v>
+        <v>45454.95833333334</v>
       </c>
       <c r="B94">
-        <v>5570</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="2">
-        <v>45435.96875</v>
+        <v>45454.96875</v>
       </c>
       <c r="B95">
-        <v>5530</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="2">
-        <v>45435.97916666666</v>
+        <v>45454.97916666666</v>
       </c>
       <c r="B96">
-        <v>5470</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="2">
-        <v>45435.98958333334</v>
+        <v>45454.98958333334</v>
       </c>
       <c r="B97">
-        <v>5400</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="2">
-        <v>45436</v>
+        <v>45455</v>
       </c>
       <c r="B98">
-        <v>5350</v>
+        <v>5680</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
+++ b/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,778 +397,738 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45454</v>
+        <v>45461</v>
       </c>
       <c r="B2">
-        <v>5780</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45454.01041666666</v>
+        <v>45461.01041666666</v>
       </c>
       <c r="B3">
-        <v>5730</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45454.02083333334</v>
+        <v>45461.02083333334</v>
       </c>
       <c r="B4">
-        <v>5680</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45454.03125</v>
+        <v>45461.03125</v>
       </c>
       <c r="B5">
-        <v>5630</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45454.04166666666</v>
+        <v>45461.04166666666</v>
       </c>
       <c r="B6">
-        <v>5590</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45454.05208333334</v>
+        <v>45461.05208333334</v>
       </c>
       <c r="B7">
-        <v>5560</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45454.0625</v>
+        <v>45461.0625</v>
       </c>
       <c r="B8">
-        <v>5530</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45454.07291666666</v>
+        <v>45461.07291666666</v>
       </c>
       <c r="B9">
-        <v>5510</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45454.08333333334</v>
+        <v>45461.08333333334</v>
       </c>
       <c r="B10">
-        <v>5500</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45454.09375</v>
+        <v>45461.09375</v>
       </c>
       <c r="B11">
-        <v>5500</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45454.10416666666</v>
+        <v>45461.10416666666</v>
       </c>
       <c r="B12">
-        <v>5500</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45454.11458333334</v>
+        <v>45461.11458333334</v>
       </c>
       <c r="B13">
-        <v>5510</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45454.125</v>
+        <v>45461.125</v>
       </c>
       <c r="B14">
-        <v>5520</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45454.13541666666</v>
+        <v>45461.13541666666</v>
       </c>
       <c r="B15">
-        <v>5520</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45454.14583333334</v>
+        <v>45461.14583333334</v>
       </c>
       <c r="B16">
-        <v>5520</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45454.15625</v>
+        <v>45461.15625</v>
       </c>
       <c r="B17">
-        <v>5520</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45454.16666666666</v>
+        <v>45461.16666666666</v>
       </c>
       <c r="B18">
-        <v>5510</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45454.17708333334</v>
+        <v>45461.17708333334</v>
       </c>
       <c r="B19">
-        <v>5510</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45454.1875</v>
+        <v>45461.1875</v>
       </c>
       <c r="B20">
-        <v>5530</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45454.19791666666</v>
+        <v>45461.19791666666</v>
       </c>
       <c r="B21">
-        <v>5590</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45454.20833333334</v>
+        <v>45461.20833333334</v>
       </c>
       <c r="B22">
-        <v>5650</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45454.21875</v>
+        <v>45461.21875</v>
       </c>
       <c r="B23">
-        <v>5740</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45454.22916666666</v>
+        <v>45461.22916666666</v>
       </c>
       <c r="B24">
-        <v>5840</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45454.23958333334</v>
+        <v>45461.23958333334</v>
       </c>
       <c r="B25">
-        <v>5950</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45454.25</v>
+        <v>45461.25</v>
       </c>
       <c r="B26">
-        <v>6130</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45454.26041666666</v>
+        <v>45461.26041666666</v>
       </c>
       <c r="B27">
-        <v>6240</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45454.27083333334</v>
+        <v>45461.27083333334</v>
       </c>
       <c r="B28">
-        <v>6340</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45454.28125</v>
+        <v>45461.28125</v>
       </c>
       <c r="B29">
-        <v>6430</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45454.29166666666</v>
+        <v>45461.29166666666</v>
       </c>
       <c r="B30">
-        <v>6500</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45454.30208333334</v>
+        <v>45461.30208333334</v>
       </c>
       <c r="B31">
-        <v>6550</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45454.3125</v>
+        <v>45461.3125</v>
       </c>
       <c r="B32">
-        <v>6570</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45454.32291666666</v>
+        <v>45461.32291666666</v>
       </c>
       <c r="B33">
-        <v>6600</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45454.33333333334</v>
+        <v>45461.33333333334</v>
       </c>
       <c r="B34">
-        <v>6610</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45454.34375</v>
+        <v>45461.34375</v>
       </c>
       <c r="B35">
-        <v>6610</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45454.35416666666</v>
+        <v>45461.35416666666</v>
       </c>
       <c r="B36">
-        <v>6600</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45454.36458333334</v>
+        <v>45461.36458333334</v>
       </c>
       <c r="B37">
-        <v>6580</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45454.375</v>
+        <v>45461.375</v>
       </c>
       <c r="B38">
-        <v>6560</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45454.38541666666</v>
+        <v>45461.38541666666</v>
       </c>
       <c r="B39">
-        <v>6540</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45454.39583333334</v>
+        <v>45461.39583333334</v>
       </c>
       <c r="B40">
-        <v>6520</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45454.40625</v>
+        <v>45461.40625</v>
       </c>
       <c r="B41">
-        <v>6510</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45454.41666666666</v>
+        <v>45461.41666666666</v>
       </c>
       <c r="B42">
-        <v>6480</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45454.42708333334</v>
+        <v>45461.42708333334</v>
       </c>
       <c r="B43">
-        <v>6470</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45454.4375</v>
+        <v>45461.4375</v>
       </c>
       <c r="B44">
-        <v>6470</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45454.44791666666</v>
+        <v>45461.44791666666</v>
       </c>
       <c r="B45">
-        <v>6470</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45454.45833333334</v>
+        <v>45461.45833333334</v>
       </c>
       <c r="B46">
-        <v>6460</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45454.46875</v>
+        <v>45461.46875</v>
       </c>
       <c r="B47">
-        <v>6450</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45454.47916666666</v>
+        <v>45461.47916666666</v>
       </c>
       <c r="B48">
-        <v>6450</v>
+        <v>5890</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45454.48958333334</v>
+        <v>45461.48958333334</v>
       </c>
       <c r="B49">
-        <v>6450</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45454.5</v>
+        <v>45461.5</v>
       </c>
       <c r="B50">
-        <v>6460</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45454.51041666666</v>
+        <v>45461.51041666666</v>
       </c>
       <c r="B51">
-        <v>6470</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45454.52083333334</v>
+        <v>45461.52083333334</v>
       </c>
       <c r="B52">
-        <v>6470</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45454.53125</v>
+        <v>45461.53125</v>
       </c>
       <c r="B53">
-        <v>6460</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45454.54166666666</v>
+        <v>45461.54166666666</v>
       </c>
       <c r="B54">
-        <v>6440</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45454.55208333334</v>
+        <v>45461.55208333334</v>
       </c>
       <c r="B55">
-        <v>6430</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45454.5625</v>
+        <v>45461.5625</v>
       </c>
       <c r="B56">
-        <v>6430</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45454.57291666666</v>
+        <v>45461.57291666666</v>
       </c>
       <c r="B57">
-        <v>6430</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45454.58333333334</v>
+        <v>45461.58333333334</v>
       </c>
       <c r="B58">
-        <v>6450</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45454.59375</v>
+        <v>45461.59375</v>
       </c>
       <c r="B59">
-        <v>6450</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45454.60416666666</v>
+        <v>45461.60416666666</v>
       </c>
       <c r="B60">
-        <v>6450</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45454.61458333334</v>
+        <v>45461.61458333334</v>
       </c>
       <c r="B61">
-        <v>6450</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45454.625</v>
+        <v>45461.625</v>
       </c>
       <c r="B62">
-        <v>6470</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45454.63541666666</v>
+        <v>45461.63541666666</v>
       </c>
       <c r="B63">
-        <v>6480</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45454.64583333334</v>
+        <v>45461.64583333334</v>
       </c>
       <c r="B64">
-        <v>6510</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45454.65625</v>
+        <v>45461.65625</v>
       </c>
       <c r="B65">
-        <v>6530</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45454.66666666666</v>
+        <v>45461.66666666666</v>
       </c>
       <c r="B66">
-        <v>6550</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45454.67708333334</v>
+        <v>45461.67708333334</v>
       </c>
       <c r="B67">
-        <v>6590</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45454.6875</v>
+        <v>45461.6875</v>
       </c>
       <c r="B68">
-        <v>6620</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45454.69791666666</v>
+        <v>45461.69791666666</v>
       </c>
       <c r="B69">
-        <v>6670</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45454.70833333334</v>
+        <v>45461.70833333334</v>
       </c>
       <c r="B70">
-        <v>6750</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45454.71875</v>
+        <v>45461.71875</v>
       </c>
       <c r="B71">
-        <v>6820</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45454.72916666666</v>
+        <v>45461.72916666666</v>
       </c>
       <c r="B72">
-        <v>6880</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45454.73958333334</v>
+        <v>45461.73958333334</v>
       </c>
       <c r="B73">
-        <v>6950</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45454.75</v>
+        <v>45461.75</v>
       </c>
       <c r="B74">
-        <v>7010</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45454.76041666666</v>
+        <v>45461.76041666666</v>
       </c>
       <c r="B75">
-        <v>7060</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45454.77083333334</v>
+        <v>45461.77083333334</v>
       </c>
       <c r="B76">
-        <v>7100</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45454.78125</v>
+        <v>45461.78125</v>
       </c>
       <c r="B77">
-        <v>7130</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45454.79166666666</v>
+        <v>45461.79166666666</v>
       </c>
       <c r="B78">
-        <v>7170</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45454.80208333334</v>
+        <v>45461.80208333334</v>
       </c>
       <c r="B79">
-        <v>7200</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45454.8125</v>
+        <v>45461.8125</v>
       </c>
       <c r="B80">
-        <v>7240</v>
+        <v>7080</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45454.82291666666</v>
+        <v>45461.82291666666</v>
       </c>
       <c r="B81">
-        <v>7290</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45454.83333333334</v>
+        <v>45461.83333333334</v>
       </c>
       <c r="B82">
-        <v>7330</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45454.84375</v>
+        <v>45461.84375</v>
       </c>
       <c r="B83">
-        <v>7320</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45454.85416666666</v>
+        <v>45461.85416666666</v>
       </c>
       <c r="B84">
-        <v>7310</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45454.86458333334</v>
+        <v>45461.86458333334</v>
       </c>
       <c r="B85">
-        <v>7230</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45454.875</v>
+        <v>45461.875</v>
       </c>
       <c r="B86">
-        <v>7100</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45454.88541666666</v>
+        <v>45461.88541666666</v>
       </c>
       <c r="B87">
-        <v>6980</v>
+        <v>6860</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45454.89583333334</v>
+        <v>45461.89583333334</v>
       </c>
       <c r="B88">
-        <v>6850</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45454.90625</v>
+        <v>45461.90625</v>
       </c>
       <c r="B89">
-        <v>6690</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45454.91666666666</v>
+        <v>45461.91666666666</v>
       </c>
       <c r="B90">
-        <v>6490</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45454.92708333334</v>
+        <v>45461.92708333334</v>
       </c>
       <c r="B91">
-        <v>6340</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45454.9375</v>
+        <v>45461.9375</v>
       </c>
       <c r="B92">
-        <v>6230</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45454.94791666666</v>
+        <v>45461.94791666666</v>
       </c>
       <c r="B93">
-        <v>6120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2">
-        <v>45454.95833333334</v>
-      </c>
-      <c r="B94">
-        <v>5890</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
-        <v>45454.96875</v>
-      </c>
-      <c r="B95">
-        <v>5850</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2">
-        <v>45454.97916666666</v>
-      </c>
-      <c r="B96">
-        <v>5790</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2">
-        <v>45454.98958333334</v>
-      </c>
-      <c r="B97">
-        <v>5730</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
-        <v>45455</v>
-      </c>
-      <c r="B98">
-        <v>5680</v>
+        <v>5920</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
+++ b/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B93"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,738 +397,778 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45461</v>
+        <v>45469</v>
       </c>
       <c r="B2">
-        <v>5390</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45461.01041666666</v>
+        <v>45469.01041666666</v>
       </c>
       <c r="B3">
-        <v>5340</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45461.02083333334</v>
+        <v>45469.02083333334</v>
       </c>
       <c r="B4">
-        <v>5290</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45461.03125</v>
+        <v>45469.03125</v>
       </c>
       <c r="B5">
-        <v>5240</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45461.04166666666</v>
+        <v>45469.04166666666</v>
       </c>
       <c r="B6">
-        <v>5200</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45461.05208333334</v>
+        <v>45469.05208333334</v>
       </c>
       <c r="B7">
-        <v>5160</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45461.0625</v>
+        <v>45469.0625</v>
       </c>
       <c r="B8">
-        <v>5130</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45461.07291666666</v>
+        <v>45469.07291666666</v>
       </c>
       <c r="B9">
-        <v>5110</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45461.08333333334</v>
+        <v>45469.08333333334</v>
       </c>
       <c r="B10">
-        <v>5100</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45461.09375</v>
+        <v>45469.09375</v>
       </c>
       <c r="B11">
-        <v>5100</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45461.10416666666</v>
+        <v>45469.10416666666</v>
       </c>
       <c r="B12">
-        <v>5090</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45461.11458333334</v>
+        <v>45469.11458333334</v>
       </c>
       <c r="B13">
-        <v>5080</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45461.125</v>
+        <v>45469.125</v>
       </c>
       <c r="B14">
-        <v>5060</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45461.13541666666</v>
+        <v>45469.13541666666</v>
       </c>
       <c r="B15">
-        <v>5050</v>
+        <v>5350</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45461.14583333334</v>
+        <v>45469.14583333334</v>
       </c>
       <c r="B16">
-        <v>5050</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45461.15625</v>
+        <v>45469.15625</v>
       </c>
       <c r="B17">
-        <v>5050</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45461.16666666666</v>
+        <v>45469.16666666666</v>
       </c>
       <c r="B18">
-        <v>5070</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45461.17708333334</v>
+        <v>45469.17708333334</v>
       </c>
       <c r="B19">
-        <v>5110</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45461.1875</v>
+        <v>45469.1875</v>
       </c>
       <c r="B20">
-        <v>5160</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45461.19791666666</v>
+        <v>45469.19791666666</v>
       </c>
       <c r="B21">
-        <v>5240</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45461.20833333334</v>
+        <v>45469.20833333334</v>
       </c>
       <c r="B22">
-        <v>5340</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45461.21875</v>
+        <v>45469.21875</v>
       </c>
       <c r="B23">
-        <v>5440</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45461.22916666666</v>
+        <v>45469.22916666666</v>
       </c>
       <c r="B24">
-        <v>5560</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45461.23958333334</v>
+        <v>45469.23958333334</v>
       </c>
       <c r="B25">
-        <v>5680</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45461.25</v>
+        <v>45469.25</v>
       </c>
       <c r="B26">
-        <v>5800</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45461.26041666666</v>
+        <v>45469.26041666666</v>
       </c>
       <c r="B27">
-        <v>5920</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45461.27083333334</v>
+        <v>45469.27083333334</v>
       </c>
       <c r="B28">
-        <v>6020</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45461.28125</v>
+        <v>45469.28125</v>
       </c>
       <c r="B29">
-        <v>6110</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45461.29166666666</v>
+        <v>45469.29166666666</v>
       </c>
       <c r="B30">
-        <v>6180</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45461.30208333334</v>
+        <v>45469.30208333334</v>
       </c>
       <c r="B31">
-        <v>6230</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45461.3125</v>
+        <v>45469.3125</v>
       </c>
       <c r="B32">
-        <v>6260</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45461.32291666666</v>
+        <v>45469.32291666666</v>
       </c>
       <c r="B33">
-        <v>6270</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45461.33333333334</v>
+        <v>45469.33333333334</v>
       </c>
       <c r="B34">
-        <v>6260</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45461.34375</v>
+        <v>45469.34375</v>
       </c>
       <c r="B35">
-        <v>6230</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45461.35416666666</v>
+        <v>45469.35416666666</v>
       </c>
       <c r="B36">
-        <v>6190</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45461.36458333334</v>
+        <v>45469.36458333334</v>
       </c>
       <c r="B37">
-        <v>6130</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45461.375</v>
+        <v>45469.375</v>
       </c>
       <c r="B38">
-        <v>6080</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45461.38541666666</v>
+        <v>45469.38541666666</v>
       </c>
       <c r="B39">
-        <v>6020</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45461.39583333334</v>
+        <v>45469.39583333334</v>
       </c>
       <c r="B40">
-        <v>5970</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45461.40625</v>
+        <v>45469.40625</v>
       </c>
       <c r="B41">
-        <v>5930</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45461.41666666666</v>
+        <v>45469.41666666666</v>
       </c>
       <c r="B42">
-        <v>5890</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45461.42708333334</v>
+        <v>45469.42708333334</v>
       </c>
       <c r="B43">
-        <v>5870</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45461.4375</v>
+        <v>45469.4375</v>
       </c>
       <c r="B44">
-        <v>5860</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45461.44791666666</v>
+        <v>45469.44791666666</v>
       </c>
       <c r="B45">
-        <v>5850</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45461.45833333334</v>
+        <v>45469.45833333334</v>
       </c>
       <c r="B46">
-        <v>5860</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45461.46875</v>
+        <v>45469.46875</v>
       </c>
       <c r="B47">
-        <v>5870</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45461.47916666666</v>
+        <v>45469.47916666666</v>
       </c>
       <c r="B48">
-        <v>5890</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45461.48958333334</v>
+        <v>45469.48958333334</v>
       </c>
       <c r="B49">
-        <v>5910</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45461.5</v>
+        <v>45469.5</v>
       </c>
       <c r="B50">
-        <v>5930</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45461.51041666666</v>
+        <v>45469.51041666666</v>
       </c>
       <c r="B51">
-        <v>5960</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45461.52083333334</v>
+        <v>45469.52083333334</v>
       </c>
       <c r="B52">
-        <v>5990</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45461.53125</v>
+        <v>45469.53125</v>
       </c>
       <c r="B53">
-        <v>6010</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45461.54166666666</v>
+        <v>45469.54166666666</v>
       </c>
       <c r="B54">
-        <v>6040</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45461.55208333334</v>
+        <v>45469.55208333334</v>
       </c>
       <c r="B55">
-        <v>6070</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45461.5625</v>
+        <v>45469.5625</v>
       </c>
       <c r="B56">
-        <v>6090</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45461.57291666666</v>
+        <v>45469.57291666666</v>
       </c>
       <c r="B57">
-        <v>6110</v>
+        <v>6640</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45461.58333333334</v>
+        <v>45469.58333333334</v>
       </c>
       <c r="B58">
-        <v>6130</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45461.59375</v>
+        <v>45469.59375</v>
       </c>
       <c r="B59">
-        <v>6140</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45461.60416666666</v>
+        <v>45469.60416666666</v>
       </c>
       <c r="B60">
-        <v>6150</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45461.61458333334</v>
+        <v>45469.61458333334</v>
       </c>
       <c r="B61">
-        <v>6170</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45461.625</v>
+        <v>45469.625</v>
       </c>
       <c r="B62">
-        <v>6200</v>
+        <v>6730</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45461.63541666666</v>
+        <v>45469.63541666666</v>
       </c>
       <c r="B63">
-        <v>6230</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45461.64583333334</v>
+        <v>45469.64583333334</v>
       </c>
       <c r="B64">
-        <v>6280</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45461.65625</v>
+        <v>45469.65625</v>
       </c>
       <c r="B65">
-        <v>6330</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45461.66666666666</v>
+        <v>45469.66666666666</v>
       </c>
       <c r="B66">
-        <v>6380</v>
+        <v>6920</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45461.67708333334</v>
+        <v>45469.67708333334</v>
       </c>
       <c r="B67">
-        <v>6430</v>
+        <v>6960</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45461.6875</v>
+        <v>45469.6875</v>
       </c>
       <c r="B68">
-        <v>6480</v>
+        <v>7010</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45461.69791666666</v>
+        <v>45469.69791666666</v>
       </c>
       <c r="B69">
-        <v>6520</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45461.70833333334</v>
+        <v>45469.70833333334</v>
       </c>
       <c r="B70">
-        <v>6560</v>
+        <v>7110</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45461.71875</v>
+        <v>45469.71875</v>
       </c>
       <c r="B71">
-        <v>6610</v>
+        <v>7160</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45461.72916666666</v>
+        <v>45469.72916666666</v>
       </c>
       <c r="B72">
-        <v>6660</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45461.73958333334</v>
+        <v>45469.73958333334</v>
       </c>
       <c r="B73">
-        <v>6730</v>
+        <v>7290</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45461.75</v>
+        <v>45469.75</v>
       </c>
       <c r="B74">
-        <v>6810</v>
+        <v>7360</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45461.76041666666</v>
+        <v>45469.76041666666</v>
       </c>
       <c r="B75">
-        <v>6880</v>
+        <v>7430</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45461.77083333334</v>
+        <v>45469.77083333334</v>
       </c>
       <c r="B76">
-        <v>6940</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45461.78125</v>
+        <v>45469.78125</v>
       </c>
       <c r="B77">
-        <v>6970</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45461.79166666666</v>
+        <v>45469.79166666666</v>
       </c>
       <c r="B78">
-        <v>7000</v>
+        <v>7540</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45461.80208333334</v>
+        <v>45469.80208333334</v>
       </c>
       <c r="B79">
-        <v>7050</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45461.8125</v>
+        <v>45469.8125</v>
       </c>
       <c r="B80">
-        <v>7080</v>
+        <v>7590</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45461.82291666666</v>
+        <v>45469.82291666666</v>
       </c>
       <c r="B81">
-        <v>7140</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45461.83333333334</v>
+        <v>45469.83333333334</v>
       </c>
       <c r="B82">
-        <v>7140</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45461.84375</v>
+        <v>45469.84375</v>
       </c>
       <c r="B83">
-        <v>7110</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45461.85416666666</v>
+        <v>45469.85416666666</v>
       </c>
       <c r="B84">
-        <v>7090</v>
+        <v>7630</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45461.86458333334</v>
+        <v>45469.86458333334</v>
       </c>
       <c r="B85">
-        <v>7020</v>
+        <v>7570</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45461.875</v>
+        <v>45469.875</v>
       </c>
       <c r="B86">
-        <v>6920</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45461.88541666666</v>
+        <v>45469.88541666666</v>
       </c>
       <c r="B87">
-        <v>6860</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45461.89583333334</v>
+        <v>45469.89583333334</v>
       </c>
       <c r="B88">
-        <v>6730</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45461.90625</v>
+        <v>45469.90625</v>
       </c>
       <c r="B89">
-        <v>6540</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45461.91666666666</v>
+        <v>45469.91666666666</v>
       </c>
       <c r="B90">
-        <v>6290</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45461.92708333334</v>
+        <v>45469.92708333334</v>
       </c>
       <c r="B91">
-        <v>6120</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45461.9375</v>
+        <v>45469.9375</v>
       </c>
       <c r="B92">
-        <v>6030</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45461.94791666666</v>
+        <v>45469.94791666666</v>
       </c>
       <c r="B93">
-        <v>5920</v>
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>45469.95833333334</v>
+      </c>
+      <c r="B94">
+        <v>5970</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
+        <v>45469.96875</v>
+      </c>
+      <c r="B95">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
+        <v>45469.97916666666</v>
+      </c>
+      <c r="B96">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
+        <v>45469.98958333334</v>
+      </c>
+      <c r="B97">
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
+        <v>45470</v>
+      </c>
+      <c r="B98">
+        <v>5710</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
+++ b/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
@@ -381,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,778 +397,738 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45469</v>
+        <v>45526</v>
       </c>
       <c r="B2">
-        <v>5730</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45469.01041666666</v>
+        <v>45526.01041666666</v>
       </c>
       <c r="B3">
-        <v>5650</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45469.02083333334</v>
+        <v>45526.02083333334</v>
       </c>
       <c r="B4">
-        <v>5580</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45469.03125</v>
+        <v>45526.03125</v>
       </c>
       <c r="B5">
-        <v>5520</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45469.04166666666</v>
+        <v>45526.04166666666</v>
       </c>
       <c r="B6">
-        <v>5480</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45469.05208333334</v>
+        <v>45526.05208333334</v>
       </c>
       <c r="B7">
-        <v>5440</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45469.0625</v>
+        <v>45526.0625</v>
       </c>
       <c r="B8">
-        <v>5420</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45469.07291666666</v>
+        <v>45526.07291666666</v>
       </c>
       <c r="B9">
-        <v>5410</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45469.08333333334</v>
+        <v>45526.08333333334</v>
       </c>
       <c r="B10">
-        <v>5390</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45469.09375</v>
+        <v>45526.09375</v>
       </c>
       <c r="B11">
-        <v>5380</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45469.10416666666</v>
+        <v>45526.10416666666</v>
       </c>
       <c r="B12">
-        <v>5370</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45469.11458333334</v>
+        <v>45526.11458333334</v>
       </c>
       <c r="B13">
-        <v>5360</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45469.125</v>
+        <v>45526.125</v>
       </c>
       <c r="B14">
-        <v>5350</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45469.13541666666</v>
+        <v>45526.13541666666</v>
       </c>
       <c r="B15">
-        <v>5350</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45469.14583333334</v>
+        <v>45526.14583333334</v>
       </c>
       <c r="B16">
-        <v>5360</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45469.15625</v>
+        <v>45526.15625</v>
       </c>
       <c r="B17">
-        <v>5370</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45469.16666666666</v>
+        <v>45526.16666666666</v>
       </c>
       <c r="B18">
-        <v>5380</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45469.17708333334</v>
+        <v>45526.17708333334</v>
       </c>
       <c r="B19">
-        <v>5390</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45469.1875</v>
+        <v>45526.1875</v>
       </c>
       <c r="B20">
-        <v>5420</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45469.19791666666</v>
+        <v>45526.19791666666</v>
       </c>
       <c r="B21">
-        <v>5480</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45469.20833333334</v>
+        <v>45526.20833333334</v>
       </c>
       <c r="B22">
-        <v>5580</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45469.21875</v>
+        <v>45526.21875</v>
       </c>
       <c r="B23">
-        <v>5710</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45469.22916666666</v>
+        <v>45526.22916666666</v>
       </c>
       <c r="B24">
-        <v>5850</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45469.23958333334</v>
+        <v>45526.23958333334</v>
       </c>
       <c r="B25">
-        <v>6000</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45469.25</v>
+        <v>45526.25</v>
       </c>
       <c r="B26">
-        <v>6150</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45469.26041666666</v>
+        <v>45526.26041666666</v>
       </c>
       <c r="B27">
-        <v>6280</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45469.27083333334</v>
+        <v>45526.27083333334</v>
       </c>
       <c r="B28">
-        <v>6400</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45469.28125</v>
+        <v>45526.28125</v>
       </c>
       <c r="B29">
-        <v>6500</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45469.29166666666</v>
+        <v>45526.29166666666</v>
       </c>
       <c r="B30">
-        <v>6580</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45469.30208333334</v>
+        <v>45526.30208333334</v>
       </c>
       <c r="B31">
-        <v>6620</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45469.3125</v>
+        <v>45526.3125</v>
       </c>
       <c r="B32">
-        <v>6640</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45469.32291666666</v>
+        <v>45526.32291666666</v>
       </c>
       <c r="B33">
-        <v>6640</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45469.33333333334</v>
+        <v>45526.33333333334</v>
       </c>
       <c r="B34">
-        <v>6620</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45469.34375</v>
+        <v>45526.34375</v>
       </c>
       <c r="B35">
-        <v>6590</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45469.35416666666</v>
+        <v>45526.35416666666</v>
       </c>
       <c r="B36">
-        <v>6560</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45469.36458333334</v>
+        <v>45526.36458333334</v>
       </c>
       <c r="B37">
-        <v>6530</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45469.375</v>
+        <v>45526.375</v>
       </c>
       <c r="B38">
-        <v>6490</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45469.38541666666</v>
+        <v>45526.38541666666</v>
       </c>
       <c r="B39">
-        <v>6470</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45469.39583333334</v>
+        <v>45526.39583333334</v>
       </c>
       <c r="B40">
-        <v>6440</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45469.40625</v>
+        <v>45526.40625</v>
       </c>
       <c r="B41">
-        <v>6420</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45469.41666666666</v>
+        <v>45526.41666666666</v>
       </c>
       <c r="B42">
-        <v>6390</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45469.42708333334</v>
+        <v>45526.42708333334</v>
       </c>
       <c r="B43">
-        <v>6370</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45469.4375</v>
+        <v>45526.4375</v>
       </c>
       <c r="B44">
-        <v>6370</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45469.44791666666</v>
+        <v>45526.44791666666</v>
       </c>
       <c r="B45">
-        <v>6380</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45469.45833333334</v>
+        <v>45526.45833333334</v>
       </c>
       <c r="B46">
-        <v>6420</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45469.46875</v>
+        <v>45526.46875</v>
       </c>
       <c r="B47">
-        <v>6450</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45469.47916666666</v>
+        <v>45526.47916666666</v>
       </c>
       <c r="B48">
-        <v>6490</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45469.48958333334</v>
+        <v>45526.48958333334</v>
       </c>
       <c r="B49">
-        <v>6520</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45469.5</v>
+        <v>45526.5</v>
       </c>
       <c r="B50">
-        <v>6550</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45469.51041666666</v>
+        <v>45526.51041666666</v>
       </c>
       <c r="B51">
-        <v>6570</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45469.52083333334</v>
+        <v>45526.52083333334</v>
       </c>
       <c r="B52">
-        <v>6590</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45469.53125</v>
+        <v>45526.53125</v>
       </c>
       <c r="B53">
-        <v>6610</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45469.54166666666</v>
+        <v>45526.54166666666</v>
       </c>
       <c r="B54">
-        <v>6620</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45469.55208333334</v>
+        <v>45526.55208333334</v>
       </c>
       <c r="B55">
-        <v>6620</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45469.5625</v>
+        <v>45526.5625</v>
       </c>
       <c r="B56">
-        <v>6630</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45469.57291666666</v>
+        <v>45526.57291666666</v>
       </c>
       <c r="B57">
-        <v>6640</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45469.58333333334</v>
+        <v>45526.58333333334</v>
       </c>
       <c r="B58">
-        <v>6650</v>
+        <v>6380</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45469.59375</v>
+        <v>45526.59375</v>
       </c>
       <c r="B59">
-        <v>6660</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45469.60416666666</v>
+        <v>45526.60416666666</v>
       </c>
       <c r="B60">
-        <v>6670</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45469.61458333334</v>
+        <v>45526.61458333334</v>
       </c>
       <c r="B61">
-        <v>6680</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45469.625</v>
+        <v>45526.625</v>
       </c>
       <c r="B62">
-        <v>6730</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45469.63541666666</v>
+        <v>45526.63541666666</v>
       </c>
       <c r="B63">
-        <v>6770</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45469.64583333334</v>
+        <v>45526.64583333334</v>
       </c>
       <c r="B64">
-        <v>6820</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45469.65625</v>
+        <v>45526.65625</v>
       </c>
       <c r="B65">
-        <v>6870</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45469.66666666666</v>
+        <v>45526.66666666666</v>
       </c>
       <c r="B66">
-        <v>6920</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45469.67708333334</v>
+        <v>45526.67708333334</v>
       </c>
       <c r="B67">
-        <v>6960</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45469.6875</v>
+        <v>45526.6875</v>
       </c>
       <c r="B68">
-        <v>7010</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45469.69791666666</v>
+        <v>45526.69791666666</v>
       </c>
       <c r="B69">
-        <v>7050</v>
+        <v>7030</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45469.70833333334</v>
+        <v>45526.70833333334</v>
       </c>
       <c r="B70">
-        <v>7110</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45469.71875</v>
+        <v>45526.71875</v>
       </c>
       <c r="B71">
-        <v>7160</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45469.72916666666</v>
+        <v>45526.72916666666</v>
       </c>
       <c r="B72">
-        <v>7220</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45469.73958333334</v>
+        <v>45526.73958333334</v>
       </c>
       <c r="B73">
-        <v>7290</v>
+        <v>7270</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45469.75</v>
+        <v>45526.75</v>
       </c>
       <c r="B74">
-        <v>7360</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45469.76041666666</v>
+        <v>45526.76041666666</v>
       </c>
       <c r="B75">
-        <v>7430</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45469.77083333334</v>
+        <v>45526.77083333334</v>
       </c>
       <c r="B76">
-        <v>7470</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45469.78125</v>
+        <v>45526.78125</v>
       </c>
       <c r="B77">
-        <v>7510</v>
+        <v>7470</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45469.79166666666</v>
+        <v>45526.79166666666</v>
       </c>
       <c r="B78">
-        <v>7540</v>
+        <v>7480</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45469.80208333334</v>
+        <v>45526.80208333334</v>
       </c>
       <c r="B79">
-        <v>7570</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45469.8125</v>
+        <v>45526.8125</v>
       </c>
       <c r="B80">
-        <v>7590</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45469.82291666666</v>
+        <v>45526.82291666666</v>
       </c>
       <c r="B81">
-        <v>7620</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45469.83333333334</v>
+        <v>45526.83333333334</v>
       </c>
       <c r="B82">
-        <v>7640</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45469.84375</v>
+        <v>45526.84375</v>
       </c>
       <c r="B83">
-        <v>7650</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45469.85416666666</v>
+        <v>45526.85416666666</v>
       </c>
       <c r="B84">
-        <v>7630</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45469.86458333334</v>
+        <v>45526.86458333334</v>
       </c>
       <c r="B85">
-        <v>7570</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45469.875</v>
+        <v>45526.875</v>
       </c>
       <c r="B86">
-        <v>7480</v>
+        <v>7120</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45469.88541666666</v>
+        <v>45526.88541666666</v>
       </c>
       <c r="B87">
-        <v>7350</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45469.89583333334</v>
+        <v>45526.89583333334</v>
       </c>
       <c r="B88">
-        <v>7200</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45469.90625</v>
+        <v>45526.90625</v>
       </c>
       <c r="B89">
-        <v>7020</v>
+        <v>6670</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45469.91666666666</v>
+        <v>45526.91666666666</v>
       </c>
       <c r="B90">
-        <v>6820</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45469.92708333334</v>
+        <v>45526.92708333334</v>
       </c>
       <c r="B91">
-        <v>6660</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45469.9375</v>
+        <v>45526.9375</v>
       </c>
       <c r="B92">
-        <v>6550</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45469.94791666666</v>
+        <v>45526.94791666666</v>
       </c>
       <c r="B93">
-        <v>6440</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="2">
-        <v>45469.95833333334</v>
-      </c>
-      <c r="B94">
-        <v>5970</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="2">
-        <v>45469.96875</v>
-      </c>
-      <c r="B95">
-        <v>5900</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2">
-        <v>45469.97916666666</v>
-      </c>
-      <c r="B96">
-        <v>5840</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2">
-        <v>45469.98958333334</v>
-      </c>
-      <c r="B97">
-        <v>5780</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2">
-        <v>45470</v>
-      </c>
-      <c r="B98">
-        <v>5710</v>
+        <v>6070</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
+++ b/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
@@ -397,738 +397,738 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45526</v>
+        <v>45546</v>
       </c>
       <c r="B2">
-        <v>5580</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45526.01041666666</v>
+        <v>45546.01041666666</v>
       </c>
       <c r="B3">
-        <v>5510</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45526.02083333334</v>
+        <v>45546.02083333334</v>
       </c>
       <c r="B4">
-        <v>5450</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45526.03125</v>
+        <v>45546.03125</v>
       </c>
       <c r="B5">
-        <v>5400</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45526.04166666666</v>
+        <v>45546.04166666666</v>
       </c>
       <c r="B6">
-        <v>5360</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45526.05208333334</v>
+        <v>45546.05208333334</v>
       </c>
       <c r="B7">
-        <v>5320</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45526.0625</v>
+        <v>45546.0625</v>
       </c>
       <c r="B8">
-        <v>5290</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45526.07291666666</v>
+        <v>45546.07291666666</v>
       </c>
       <c r="B9">
-        <v>5260</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45526.08333333334</v>
+        <v>45546.08333333334</v>
       </c>
       <c r="B10">
-        <v>5240</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45526.09375</v>
+        <v>45546.09375</v>
       </c>
       <c r="B11">
-        <v>5220</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45526.10416666666</v>
+        <v>45546.10416666666</v>
       </c>
       <c r="B12">
-        <v>5210</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45526.11458333334</v>
+        <v>45546.11458333334</v>
       </c>
       <c r="B13">
-        <v>5200</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45526.125</v>
+        <v>45546.125</v>
       </c>
       <c r="B14">
-        <v>5200</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45526.13541666666</v>
+        <v>45546.13541666666</v>
       </c>
       <c r="B15">
-        <v>5200</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45526.14583333334</v>
+        <v>45546.14583333334</v>
       </c>
       <c r="B16">
-        <v>5210</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45526.15625</v>
+        <v>45546.15625</v>
       </c>
       <c r="B17">
-        <v>5220</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45526.16666666666</v>
+        <v>45546.16666666666</v>
       </c>
       <c r="B18">
-        <v>5240</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45526.17708333334</v>
+        <v>45546.17708333334</v>
       </c>
       <c r="B19">
-        <v>5270</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45526.1875</v>
+        <v>45546.1875</v>
       </c>
       <c r="B20">
-        <v>5300</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45526.19791666666</v>
+        <v>45546.19791666666</v>
       </c>
       <c r="B21">
-        <v>5360</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45526.20833333334</v>
+        <v>45546.20833333334</v>
       </c>
       <c r="B22">
-        <v>5420</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45526.21875</v>
+        <v>45546.21875</v>
       </c>
       <c r="B23">
-        <v>5500</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45526.22916666666</v>
+        <v>45546.22916666666</v>
       </c>
       <c r="B24">
-        <v>5600</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45526.23958333334</v>
+        <v>45546.23958333334</v>
       </c>
       <c r="B25">
-        <v>5710</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45526.25</v>
+        <v>45546.25</v>
       </c>
       <c r="B26">
-        <v>5830</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45526.26041666666</v>
+        <v>45546.26041666666</v>
       </c>
       <c r="B27">
-        <v>5960</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45526.27083333334</v>
+        <v>45546.27083333334</v>
       </c>
       <c r="B28">
-        <v>6080</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45526.28125</v>
+        <v>45546.28125</v>
       </c>
       <c r="B29">
-        <v>6190</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45526.29166666666</v>
+        <v>45546.29166666666</v>
       </c>
       <c r="B30">
-        <v>6280</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45526.30208333334</v>
+        <v>45546.30208333334</v>
       </c>
       <c r="B31">
-        <v>6350</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45526.3125</v>
+        <v>45546.3125</v>
       </c>
       <c r="B32">
-        <v>6400</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45526.32291666666</v>
+        <v>45546.32291666666</v>
       </c>
       <c r="B33">
-        <v>6400</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45526.33333333334</v>
+        <v>45546.33333333334</v>
       </c>
       <c r="B34">
-        <v>6400</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45526.34375</v>
+        <v>45546.34375</v>
       </c>
       <c r="B35">
-        <v>6390</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45526.35416666666</v>
+        <v>45546.35416666666</v>
       </c>
       <c r="B36">
-        <v>6350</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45526.36458333334</v>
+        <v>45546.36458333334</v>
       </c>
       <c r="B37">
-        <v>6310</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45526.375</v>
+        <v>45546.375</v>
       </c>
       <c r="B38">
-        <v>6260</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45526.38541666666</v>
+        <v>45546.38541666666</v>
       </c>
       <c r="B39">
-        <v>6220</v>
+        <v>6740</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45526.39583333334</v>
+        <v>45546.39583333334</v>
       </c>
       <c r="B40">
-        <v>6190</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45526.40625</v>
+        <v>45546.40625</v>
       </c>
       <c r="B41">
-        <v>6170</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45526.41666666666</v>
+        <v>45546.41666666666</v>
       </c>
       <c r="B42">
-        <v>6160</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45526.42708333334</v>
+        <v>45546.42708333334</v>
       </c>
       <c r="B43">
-        <v>6160</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45526.4375</v>
+        <v>45546.4375</v>
       </c>
       <c r="B44">
-        <v>6170</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45526.44791666666</v>
+        <v>45546.44791666666</v>
       </c>
       <c r="B45">
-        <v>6180</v>
+        <v>6580</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45526.45833333334</v>
+        <v>45546.45833333334</v>
       </c>
       <c r="B46">
-        <v>6180</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45526.46875</v>
+        <v>45546.46875</v>
       </c>
       <c r="B47">
-        <v>6190</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45526.47916666666</v>
+        <v>45546.47916666666</v>
       </c>
       <c r="B48">
-        <v>6190</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45526.48958333334</v>
+        <v>45546.48958333334</v>
       </c>
       <c r="B49">
-        <v>6190</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45526.5</v>
+        <v>45546.5</v>
       </c>
       <c r="B50">
-        <v>6190</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45526.51041666666</v>
+        <v>45546.51041666666</v>
       </c>
       <c r="B51">
-        <v>6200</v>
+        <v>6490</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45526.52083333334</v>
+        <v>45546.52083333334</v>
       </c>
       <c r="B52">
-        <v>6220</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45526.53125</v>
+        <v>45546.53125</v>
       </c>
       <c r="B53">
-        <v>6240</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45526.54166666666</v>
+        <v>45546.54166666666</v>
       </c>
       <c r="B54">
-        <v>6270</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45526.55208333334</v>
+        <v>45546.55208333334</v>
       </c>
       <c r="B55">
-        <v>6300</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45526.5625</v>
+        <v>45546.5625</v>
       </c>
       <c r="B56">
-        <v>6330</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45526.57291666666</v>
+        <v>45546.57291666666</v>
       </c>
       <c r="B57">
-        <v>6360</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45526.58333333334</v>
+        <v>45546.58333333334</v>
       </c>
       <c r="B58">
-        <v>6380</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45526.59375</v>
+        <v>45546.59375</v>
       </c>
       <c r="B59">
-        <v>6400</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45526.60416666666</v>
+        <v>45546.60416666666</v>
       </c>
       <c r="B60">
-        <v>6430</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45526.61458333334</v>
+        <v>45546.61458333334</v>
       </c>
       <c r="B61">
-        <v>6460</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45526.625</v>
+        <v>45546.625</v>
       </c>
       <c r="B62">
-        <v>6500</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45526.63541666666</v>
+        <v>45546.63541666666</v>
       </c>
       <c r="B63">
-        <v>6560</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45526.64583333334</v>
+        <v>45546.64583333334</v>
       </c>
       <c r="B64">
-        <v>6630</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45526.65625</v>
+        <v>45546.65625</v>
       </c>
       <c r="B65">
-        <v>6710</v>
+        <v>6510</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45526.66666666666</v>
+        <v>45546.66666666666</v>
       </c>
       <c r="B66">
-        <v>6800</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45526.67708333334</v>
+        <v>45546.67708333334</v>
       </c>
       <c r="B67">
-        <v>6890</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45526.6875</v>
+        <v>45546.6875</v>
       </c>
       <c r="B68">
-        <v>6970</v>
+        <v>6690</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45526.69791666666</v>
+        <v>45546.69791666666</v>
       </c>
       <c r="B69">
-        <v>7030</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45526.70833333334</v>
+        <v>45546.70833333334</v>
       </c>
       <c r="B70">
-        <v>7090</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45526.71875</v>
+        <v>45546.71875</v>
       </c>
       <c r="B71">
-        <v>7140</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45526.72916666666</v>
+        <v>45546.72916666666</v>
       </c>
       <c r="B72">
-        <v>7200</v>
+        <v>6980</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45526.73958333334</v>
+        <v>45546.73958333334</v>
       </c>
       <c r="B73">
-        <v>7270</v>
+        <v>7090</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45526.75</v>
+        <v>45546.75</v>
       </c>
       <c r="B74">
-        <v>7350</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45526.76041666666</v>
+        <v>45546.76041666666</v>
       </c>
       <c r="B75">
-        <v>7410</v>
+        <v>7310</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45526.77083333334</v>
+        <v>45546.77083333334</v>
       </c>
       <c r="B76">
-        <v>7460</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45526.78125</v>
+        <v>45546.78125</v>
       </c>
       <c r="B77">
-        <v>7470</v>
+        <v>7460</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45526.79166666666</v>
+        <v>45546.79166666666</v>
       </c>
       <c r="B78">
-        <v>7480</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45526.80208333334</v>
+        <v>45546.80208333334</v>
       </c>
       <c r="B79">
-        <v>7500</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45526.8125</v>
+        <v>45546.8125</v>
       </c>
       <c r="B80">
-        <v>7500</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45526.82291666666</v>
+        <v>45546.82291666666</v>
       </c>
       <c r="B81">
-        <v>7500</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45526.83333333334</v>
+        <v>45546.83333333334</v>
       </c>
       <c r="B82">
-        <v>7500</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45526.84375</v>
+        <v>45546.84375</v>
       </c>
       <c r="B83">
-        <v>7500</v>
+        <v>7510</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45526.85416666666</v>
+        <v>45546.85416666666</v>
       </c>
       <c r="B84">
-        <v>7460</v>
+        <v>7450</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45526.86458333334</v>
+        <v>45546.86458333334</v>
       </c>
       <c r="B85">
-        <v>7320</v>
+        <v>7350</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45526.875</v>
+        <v>45546.875</v>
       </c>
       <c r="B86">
-        <v>7120</v>
+        <v>7220</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45526.88541666666</v>
+        <v>45546.88541666666</v>
       </c>
       <c r="B87">
-        <v>6980</v>
+        <v>7140</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45526.89583333334</v>
+        <v>45546.89583333334</v>
       </c>
       <c r="B88">
-        <v>6820</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45526.90625</v>
+        <v>45546.90625</v>
       </c>
       <c r="B89">
-        <v>6670</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45526.91666666666</v>
+        <v>45546.91666666666</v>
       </c>
       <c r="B90">
-        <v>6440</v>
+        <v>6420</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45526.92708333334</v>
+        <v>45546.92708333334</v>
       </c>
       <c r="B91">
-        <v>6260</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45526.9375</v>
+        <v>45546.9375</v>
       </c>
       <c r="B92">
-        <v>6180</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45526.94791666666</v>
+        <v>45546.94791666666</v>
       </c>
       <c r="B93">
-        <v>6070</v>
+        <v>6020</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
+++ b/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
@@ -397,207 +397,207 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45546</v>
+        <v>45553</v>
       </c>
       <c r="B2">
-        <v>5170</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45546.01041666666</v>
+        <v>45553.01041666666</v>
       </c>
       <c r="B3">
-        <v>5140</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45546.02083333334</v>
+        <v>45553.02083333334</v>
       </c>
       <c r="B4">
-        <v>5100</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45546.03125</v>
+        <v>45553.03125</v>
       </c>
       <c r="B5">
-        <v>5070</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45546.04166666666</v>
+        <v>45553.04166666666</v>
       </c>
       <c r="B6">
-        <v>5040</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45546.05208333334</v>
+        <v>45553.05208333334</v>
       </c>
       <c r="B7">
-        <v>5020</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45546.0625</v>
+        <v>45553.0625</v>
       </c>
       <c r="B8">
-        <v>5000</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45546.07291666666</v>
+        <v>45553.07291666666</v>
       </c>
       <c r="B9">
-        <v>5010</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45546.08333333334</v>
+        <v>45553.08333333334</v>
       </c>
       <c r="B10">
-        <v>5020</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45546.09375</v>
+        <v>45553.09375</v>
       </c>
       <c r="B11">
-        <v>5020</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45546.10416666666</v>
+        <v>45553.10416666666</v>
       </c>
       <c r="B12">
-        <v>5030</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45546.11458333334</v>
+        <v>45553.11458333334</v>
       </c>
       <c r="B13">
-        <v>5030</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45546.125</v>
+        <v>45553.125</v>
       </c>
       <c r="B14">
-        <v>5030</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45546.13541666666</v>
+        <v>45553.13541666666</v>
       </c>
       <c r="B15">
-        <v>5040</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45546.14583333334</v>
+        <v>45553.14583333334</v>
       </c>
       <c r="B16">
-        <v>5050</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45546.15625</v>
+        <v>45553.15625</v>
       </c>
       <c r="B17">
-        <v>5080</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45546.16666666666</v>
+        <v>45553.16666666666</v>
       </c>
       <c r="B18">
-        <v>5120</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45546.17708333334</v>
+        <v>45553.17708333334</v>
       </c>
       <c r="B19">
-        <v>5190</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45546.1875</v>
+        <v>45553.1875</v>
       </c>
       <c r="B20">
-        <v>5270</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45546.19791666666</v>
+        <v>45553.19791666666</v>
       </c>
       <c r="B21">
-        <v>5380</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45546.20833333334</v>
+        <v>45553.20833333334</v>
       </c>
       <c r="B22">
-        <v>5510</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45546.21875</v>
+        <v>45553.21875</v>
       </c>
       <c r="B23">
-        <v>5640</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45546.22916666666</v>
+        <v>45553.22916666666</v>
       </c>
       <c r="B24">
-        <v>5790</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45546.23958333334</v>
+        <v>45553.23958333334</v>
       </c>
       <c r="B25">
-        <v>5940</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45546.25</v>
+        <v>45553.25</v>
       </c>
       <c r="B26">
-        <v>6080</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45546.26041666666</v>
+        <v>45553.26041666666</v>
       </c>
       <c r="B27">
         <v>6220</v>
@@ -605,530 +605,530 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45546.27083333334</v>
+        <v>45553.27083333334</v>
       </c>
       <c r="B28">
-        <v>6350</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45546.28125</v>
+        <v>45553.28125</v>
       </c>
       <c r="B29">
-        <v>6470</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45546.29166666666</v>
+        <v>45553.29166666666</v>
       </c>
       <c r="B30">
-        <v>6570</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45546.30208333334</v>
+        <v>45553.30208333334</v>
       </c>
       <c r="B31">
-        <v>6660</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45546.3125</v>
+        <v>45553.3125</v>
       </c>
       <c r="B32">
-        <v>6720</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45546.32291666666</v>
+        <v>45553.32291666666</v>
       </c>
       <c r="B33">
-        <v>6770</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45546.33333333334</v>
+        <v>45553.33333333334</v>
       </c>
       <c r="B34">
-        <v>6800</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45546.34375</v>
+        <v>45553.34375</v>
       </c>
       <c r="B35">
-        <v>6800</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45546.35416666666</v>
+        <v>45553.35416666666</v>
       </c>
       <c r="B36">
-        <v>6800</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45546.36458333334</v>
+        <v>45553.36458333334</v>
       </c>
       <c r="B37">
-        <v>6790</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45546.375</v>
+        <v>45553.375</v>
       </c>
       <c r="B38">
-        <v>6770</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45546.38541666666</v>
+        <v>45553.38541666666</v>
       </c>
       <c r="B39">
-        <v>6740</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45546.39583333334</v>
+        <v>45553.39583333334</v>
       </c>
       <c r="B40">
-        <v>6710</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45546.40625</v>
+        <v>45553.40625</v>
       </c>
       <c r="B41">
-        <v>6680</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45546.41666666666</v>
+        <v>45553.41666666666</v>
       </c>
       <c r="B42">
-        <v>6650</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45546.42708333334</v>
+        <v>45553.42708333334</v>
       </c>
       <c r="B43">
-        <v>6620</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45546.4375</v>
+        <v>45553.4375</v>
       </c>
       <c r="B44">
-        <v>6600</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45546.44791666666</v>
+        <v>45553.44791666666</v>
       </c>
       <c r="B45">
-        <v>6580</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45546.45833333334</v>
+        <v>45553.45833333334</v>
       </c>
       <c r="B46">
-        <v>6560</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45546.46875</v>
+        <v>45553.46875</v>
       </c>
       <c r="B47">
-        <v>6550</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45546.47916666666</v>
+        <v>45553.47916666666</v>
       </c>
       <c r="B48">
-        <v>6530</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45546.48958333334</v>
+        <v>45553.48958333334</v>
       </c>
       <c r="B49">
-        <v>6520</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45546.5</v>
+        <v>45553.5</v>
       </c>
       <c r="B50">
-        <v>6500</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45546.51041666666</v>
+        <v>45553.51041666666</v>
       </c>
       <c r="B51">
-        <v>6490</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45546.52083333334</v>
+        <v>45553.52083333334</v>
       </c>
       <c r="B52">
-        <v>6480</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45546.53125</v>
+        <v>45553.53125</v>
       </c>
       <c r="B53">
-        <v>6480</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45546.54166666666</v>
+        <v>45553.54166666666</v>
       </c>
       <c r="B54">
-        <v>6470</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45546.55208333334</v>
+        <v>45553.55208333334</v>
       </c>
       <c r="B55">
-        <v>6470</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45546.5625</v>
+        <v>45553.5625</v>
       </c>
       <c r="B56">
-        <v>6460</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45546.57291666666</v>
+        <v>45553.57291666666</v>
       </c>
       <c r="B57">
-        <v>6450</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45546.58333333334</v>
+        <v>45553.58333333334</v>
       </c>
       <c r="B58">
-        <v>6440</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45546.59375</v>
+        <v>45553.59375</v>
       </c>
       <c r="B59">
-        <v>6420</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45546.60416666666</v>
+        <v>45553.60416666666</v>
       </c>
       <c r="B60">
-        <v>6410</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45546.61458333334</v>
+        <v>45553.61458333334</v>
       </c>
       <c r="B61">
-        <v>6400</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45546.625</v>
+        <v>45553.625</v>
       </c>
       <c r="B62">
-        <v>6410</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45546.63541666666</v>
+        <v>45553.63541666666</v>
       </c>
       <c r="B63">
-        <v>6430</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45546.64583333334</v>
+        <v>45553.64583333334</v>
       </c>
       <c r="B64">
-        <v>6460</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45546.65625</v>
+        <v>45553.65625</v>
       </c>
       <c r="B65">
-        <v>6510</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45546.66666666666</v>
+        <v>45553.66666666666</v>
       </c>
       <c r="B66">
-        <v>6570</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45546.67708333334</v>
+        <v>45553.67708333334</v>
       </c>
       <c r="B67">
-        <v>6630</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45546.6875</v>
+        <v>45553.6875</v>
       </c>
       <c r="B68">
-        <v>6690</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45546.69791666666</v>
+        <v>45553.69791666666</v>
       </c>
       <c r="B69">
-        <v>6750</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45546.70833333334</v>
+        <v>45553.70833333334</v>
       </c>
       <c r="B70">
-        <v>6810</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45546.71875</v>
+        <v>45553.71875</v>
       </c>
       <c r="B71">
-        <v>6890</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45546.72916666666</v>
+        <v>45553.72916666666</v>
       </c>
       <c r="B72">
-        <v>6980</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45546.73958333334</v>
+        <v>45553.73958333334</v>
       </c>
       <c r="B73">
-        <v>7090</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45546.75</v>
+        <v>45553.75</v>
       </c>
       <c r="B74">
-        <v>7200</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45546.76041666666</v>
+        <v>45553.76041666666</v>
       </c>
       <c r="B75">
-        <v>7310</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45546.77083333334</v>
+        <v>45553.77083333334</v>
       </c>
       <c r="B76">
-        <v>7400</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45546.78125</v>
+        <v>45553.78125</v>
       </c>
       <c r="B77">
-        <v>7460</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45546.79166666666</v>
+        <v>45553.79166666666</v>
       </c>
       <c r="B78">
-        <v>7500</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45546.80208333334</v>
+        <v>45553.80208333334</v>
       </c>
       <c r="B79">
-        <v>7550</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45546.8125</v>
+        <v>45553.8125</v>
       </c>
       <c r="B80">
-        <v>7550</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45546.82291666666</v>
+        <v>45553.82291666666</v>
       </c>
       <c r="B81">
-        <v>7550</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45546.83333333334</v>
+        <v>45553.83333333334</v>
       </c>
       <c r="B82">
-        <v>7550</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45546.84375</v>
+        <v>45553.84375</v>
       </c>
       <c r="B83">
-        <v>7510</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45546.85416666666</v>
+        <v>45553.85416666666</v>
       </c>
       <c r="B84">
-        <v>7450</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45546.86458333334</v>
+        <v>45553.86458333334</v>
       </c>
       <c r="B85">
-        <v>7350</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45546.875</v>
+        <v>45553.875</v>
       </c>
       <c r="B86">
-        <v>7220</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45546.88541666666</v>
+        <v>45553.88541666666</v>
       </c>
       <c r="B87">
-        <v>7140</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45546.89583333334</v>
+        <v>45553.89583333334</v>
       </c>
       <c r="B88">
-        <v>7000</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45546.90625</v>
+        <v>45553.90625</v>
       </c>
       <c r="B89">
-        <v>6770</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45546.91666666666</v>
+        <v>45553.91666666666</v>
       </c>
       <c r="B90">
-        <v>6420</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45546.92708333334</v>
+        <v>45553.92708333334</v>
       </c>
       <c r="B91">
-        <v>6200</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45546.9375</v>
+        <v>45553.9375</v>
       </c>
       <c r="B92">
-        <v>6130</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45546.94791666666</v>
+        <v>45553.94791666666</v>
       </c>
       <c r="B93">
-        <v>6020</v>
+        <v>5600</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
+++ b/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
@@ -397,623 +397,623 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45553</v>
+        <v>45561</v>
       </c>
       <c r="B2">
-        <v>5270</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45553.01041666666</v>
+        <v>45561.01041666666</v>
       </c>
       <c r="B3">
-        <v>5240</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45553.02083333334</v>
+        <v>45561.02083333334</v>
       </c>
       <c r="B4">
-        <v>5210</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45553.03125</v>
+        <v>45561.03125</v>
       </c>
       <c r="B5">
-        <v>5170</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45553.04166666666</v>
+        <v>45561.04166666666</v>
       </c>
       <c r="B6">
-        <v>5130</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45553.05208333334</v>
+        <v>45561.05208333334</v>
       </c>
       <c r="B7">
-        <v>5100</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45553.0625</v>
+        <v>45561.0625</v>
       </c>
       <c r="B8">
-        <v>5080</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45553.07291666666</v>
+        <v>45561.07291666666</v>
       </c>
       <c r="B9">
-        <v>5070</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45553.08333333334</v>
+        <v>45561.08333333334</v>
       </c>
       <c r="B10">
-        <v>5060</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45553.09375</v>
+        <v>45561.09375</v>
       </c>
       <c r="B11">
-        <v>5050</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45553.10416666666</v>
+        <v>45561.10416666666</v>
       </c>
       <c r="B12">
-        <v>5050</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45553.11458333334</v>
+        <v>45561.11458333334</v>
       </c>
       <c r="B13">
-        <v>5070</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45553.125</v>
+        <v>45561.125</v>
       </c>
       <c r="B14">
-        <v>5100</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45553.13541666666</v>
+        <v>45561.13541666666</v>
       </c>
       <c r="B15">
-        <v>5110</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45553.14583333334</v>
+        <v>45561.14583333334</v>
       </c>
       <c r="B16">
-        <v>5120</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45553.15625</v>
+        <v>45561.15625</v>
       </c>
       <c r="B17">
-        <v>5150</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45553.16666666666</v>
+        <v>45561.16666666666</v>
       </c>
       <c r="B18">
-        <v>5190</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45553.17708333334</v>
+        <v>45561.17708333334</v>
       </c>
       <c r="B19">
-        <v>5250</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45553.1875</v>
+        <v>45561.1875</v>
       </c>
       <c r="B20">
-        <v>5330</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45553.19791666666</v>
+        <v>45561.19791666666</v>
       </c>
       <c r="B21">
-        <v>5430</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45553.20833333334</v>
+        <v>45561.20833333334</v>
       </c>
       <c r="B22">
-        <v>5550</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45553.21875</v>
+        <v>45561.21875</v>
       </c>
       <c r="B23">
-        <v>5680</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45553.22916666666</v>
+        <v>45561.22916666666</v>
       </c>
       <c r="B24">
-        <v>5820</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45553.23958333334</v>
+        <v>45561.23958333334</v>
       </c>
       <c r="B25">
-        <v>5960</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45553.25</v>
+        <v>45561.25</v>
       </c>
       <c r="B26">
-        <v>6090</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45553.26041666666</v>
+        <v>45561.26041666666</v>
       </c>
       <c r="B27">
-        <v>6220</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45553.27083333334</v>
+        <v>45561.27083333334</v>
       </c>
       <c r="B28">
-        <v>6360</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45553.28125</v>
+        <v>45561.28125</v>
       </c>
       <c r="B29">
-        <v>6440</v>
+        <v>6280</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45553.29166666666</v>
+        <v>45561.29166666666</v>
       </c>
       <c r="B30">
-        <v>6520</v>
+        <v>6350</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45553.30208333334</v>
+        <v>45561.30208333334</v>
       </c>
       <c r="B31">
-        <v>6550</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45553.3125</v>
+        <v>45561.3125</v>
       </c>
       <c r="B32">
-        <v>6550</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45553.32291666666</v>
+        <v>45561.32291666666</v>
       </c>
       <c r="B33">
-        <v>6550</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45553.33333333334</v>
+        <v>45561.33333333334</v>
       </c>
       <c r="B34">
-        <v>6550</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45553.34375</v>
+        <v>45561.34375</v>
       </c>
       <c r="B35">
-        <v>6540</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45553.35416666666</v>
+        <v>45561.35416666666</v>
       </c>
       <c r="B36">
-        <v>6520</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45553.36458333334</v>
+        <v>45561.36458333334</v>
       </c>
       <c r="B37">
-        <v>6480</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45553.375</v>
+        <v>45561.375</v>
       </c>
       <c r="B38">
-        <v>6430</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45553.38541666666</v>
+        <v>45561.38541666666</v>
       </c>
       <c r="B39">
-        <v>6370</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45553.39583333334</v>
+        <v>45561.39583333334</v>
       </c>
       <c r="B40">
-        <v>6310</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45553.40625</v>
+        <v>45561.40625</v>
       </c>
       <c r="B41">
-        <v>6260</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45553.41666666666</v>
+        <v>45561.41666666666</v>
       </c>
       <c r="B42">
-        <v>6210</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45553.42708333334</v>
+        <v>45561.42708333334</v>
       </c>
       <c r="B43">
-        <v>6180</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45553.4375</v>
+        <v>45561.4375</v>
       </c>
       <c r="B44">
-        <v>6150</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45553.44791666666</v>
+        <v>45561.44791666666</v>
       </c>
       <c r="B45">
-        <v>6140</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45553.45833333334</v>
+        <v>45561.45833333334</v>
       </c>
       <c r="B46">
-        <v>6140</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45553.46875</v>
+        <v>45561.46875</v>
       </c>
       <c r="B47">
-        <v>6150</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45553.47916666666</v>
+        <v>45561.47916666666</v>
       </c>
       <c r="B48">
-        <v>6160</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45553.48958333334</v>
+        <v>45561.48958333334</v>
       </c>
       <c r="B49">
-        <v>6180</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45553.5</v>
+        <v>45561.5</v>
       </c>
       <c r="B50">
-        <v>6200</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45553.51041666666</v>
+        <v>45561.51041666666</v>
       </c>
       <c r="B51">
-        <v>6220</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45553.52083333334</v>
+        <v>45561.52083333334</v>
       </c>
       <c r="B52">
-        <v>6230</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45553.53125</v>
+        <v>45561.53125</v>
       </c>
       <c r="B53">
-        <v>6250</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45553.54166666666</v>
+        <v>45561.54166666666</v>
       </c>
       <c r="B54">
-        <v>6260</v>
+        <v>5560</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45553.55208333334</v>
+        <v>45561.55208333334</v>
       </c>
       <c r="B55">
-        <v>6270</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45553.5625</v>
+        <v>45561.5625</v>
       </c>
       <c r="B56">
-        <v>6290</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45553.57291666666</v>
+        <v>45561.57291666666</v>
       </c>
       <c r="B57">
-        <v>6310</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45553.58333333334</v>
+        <v>45561.58333333334</v>
       </c>
       <c r="B58">
-        <v>6330</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45553.59375</v>
+        <v>45561.59375</v>
       </c>
       <c r="B59">
-        <v>6360</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45553.60416666666</v>
+        <v>45561.60416666666</v>
       </c>
       <c r="B60">
-        <v>6390</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45553.61458333334</v>
+        <v>45561.61458333334</v>
       </c>
       <c r="B61">
-        <v>6430</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45553.625</v>
+        <v>45561.625</v>
       </c>
       <c r="B62">
-        <v>6460</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45553.63541666666</v>
+        <v>45561.63541666666</v>
       </c>
       <c r="B63">
-        <v>6500</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45553.64583333334</v>
+        <v>45561.64583333334</v>
       </c>
       <c r="B64">
-        <v>6530</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45553.65625</v>
+        <v>45561.65625</v>
       </c>
       <c r="B65">
-        <v>6560</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45553.66666666666</v>
+        <v>45561.66666666666</v>
       </c>
       <c r="B66">
-        <v>6590</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45553.67708333334</v>
+        <v>45561.67708333334</v>
       </c>
       <c r="B67">
-        <v>6610</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45553.6875</v>
+        <v>45561.6875</v>
       </c>
       <c r="B68">
-        <v>6630</v>
+        <v>6240</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45553.69791666666</v>
+        <v>45561.69791666666</v>
       </c>
       <c r="B69">
-        <v>6650</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45553.70833333334</v>
+        <v>45561.70833333334</v>
       </c>
       <c r="B70">
-        <v>6680</v>
+        <v>6400</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45553.71875</v>
+        <v>45561.71875</v>
       </c>
       <c r="B71">
-        <v>6710</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45553.72916666666</v>
+        <v>45561.72916666666</v>
       </c>
       <c r="B72">
-        <v>6750</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45553.73958333334</v>
+        <v>45561.73958333334</v>
       </c>
       <c r="B73">
-        <v>6810</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45553.75</v>
+        <v>45561.75</v>
       </c>
       <c r="B74">
-        <v>6880</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45553.76041666666</v>
+        <v>45561.76041666666</v>
       </c>
       <c r="B75">
-        <v>6950</v>
+        <v>6870</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45553.77083333334</v>
+        <v>45561.77083333334</v>
       </c>
       <c r="B76">
-        <v>7020</v>
+        <v>6970</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45553.78125</v>
+        <v>45561.78125</v>
       </c>
       <c r="B77">
-        <v>7100</v>
+        <v>7060</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45553.79166666666</v>
+        <v>45561.79166666666</v>
       </c>
       <c r="B78">
-        <v>7170</v>
+        <v>7150</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45553.80208333334</v>
+        <v>45561.80208333334</v>
       </c>
       <c r="B79">
         <v>7200</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45553.8125</v>
+        <v>45561.8125</v>
       </c>
       <c r="B80">
         <v>7200</v>
@@ -1029,63 +1029,63 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45553.82291666666</v>
+        <v>45561.82291666666</v>
       </c>
       <c r="B81">
-        <v>7180</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45553.83333333334</v>
+        <v>45561.83333333334</v>
       </c>
       <c r="B82">
-        <v>7070</v>
+        <v>7050</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45553.84375</v>
+        <v>45561.84375</v>
       </c>
       <c r="B83">
-        <v>6940</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45553.85416666666</v>
+        <v>45561.85416666666</v>
       </c>
       <c r="B84">
-        <v>6800</v>
+        <v>6770</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45553.86458333334</v>
+        <v>45561.86458333334</v>
       </c>
       <c r="B85">
-        <v>6660</v>
+        <v>6620</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45553.875</v>
+        <v>45561.875</v>
       </c>
       <c r="B86">
-        <v>6500</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45553.88541666666</v>
+        <v>45561.88541666666</v>
       </c>
       <c r="B87">
-        <v>6330</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45553.89583333334</v>
+        <v>45561.89583333334</v>
       </c>
       <c r="B88">
         <v>6160</v>
@@ -1093,42 +1093,42 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45553.90625</v>
+        <v>45561.90625</v>
       </c>
       <c r="B89">
-        <v>6040</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45553.91666666666</v>
+        <v>45561.91666666666</v>
       </c>
       <c r="B90">
-        <v>5900</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45553.92708333334</v>
+        <v>45561.92708333334</v>
       </c>
       <c r="B91">
-        <v>5790</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45553.9375</v>
+        <v>45561.9375</v>
       </c>
       <c r="B92">
-        <v>5690</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45553.94791666666</v>
+        <v>45561.94791666666</v>
       </c>
       <c r="B93">
-        <v>5600</v>
+        <v>5480</v>
       </c>
     </row>
   </sheetData>

--- a/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
+++ b/Market Fundamentals/Entsoe_data/Load_Forecast.xlsx
@@ -397,623 +397,623 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2">
-        <v>45561</v>
+        <v>45553</v>
       </c>
       <c r="B2">
-        <v>5080</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2">
-        <v>45561.01041666666</v>
+        <v>45553.01041666666</v>
       </c>
       <c r="B3">
-        <v>5040</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2">
-        <v>45561.02083333334</v>
+        <v>45553.02083333334</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2">
-        <v>45561.03125</v>
+        <v>45553.03125</v>
       </c>
       <c r="B5">
-        <v>4960</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2">
-        <v>45561.04166666666</v>
+        <v>45553.04166666666</v>
       </c>
       <c r="B6">
-        <v>4910</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2">
-        <v>45561.05208333334</v>
+        <v>45553.05208333334</v>
       </c>
       <c r="B7">
-        <v>4880</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2">
-        <v>45561.0625</v>
+        <v>45553.0625</v>
       </c>
       <c r="B8">
-        <v>4860</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2">
-        <v>45561.07291666666</v>
+        <v>45553.07291666666</v>
       </c>
       <c r="B9">
-        <v>4860</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2">
-        <v>45561.08333333334</v>
+        <v>45553.08333333334</v>
       </c>
       <c r="B10">
-        <v>4850</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2">
-        <v>45561.09375</v>
+        <v>45553.09375</v>
       </c>
       <c r="B11">
-        <v>4850</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2">
-        <v>45561.10416666666</v>
+        <v>45553.10416666666</v>
       </c>
       <c r="B12">
-        <v>4870</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2">
-        <v>45561.11458333334</v>
+        <v>45553.11458333334</v>
       </c>
       <c r="B13">
-        <v>4880</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="2">
-        <v>45561.125</v>
+        <v>45553.125</v>
       </c>
       <c r="B14">
-        <v>4900</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2">
-        <v>45561.13541666666</v>
+        <v>45553.13541666666</v>
       </c>
       <c r="B15">
-        <v>4920</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>45561.14583333334</v>
+        <v>45553.14583333334</v>
       </c>
       <c r="B16">
-        <v>4940</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>45561.15625</v>
+        <v>45553.15625</v>
       </c>
       <c r="B17">
-        <v>4970</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>45561.16666666666</v>
+        <v>45553.16666666666</v>
       </c>
       <c r="B18">
-        <v>5010</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>45561.17708333334</v>
+        <v>45553.17708333334</v>
       </c>
       <c r="B19">
-        <v>5080</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>45561.1875</v>
+        <v>45553.1875</v>
       </c>
       <c r="B20">
-        <v>5170</v>
+        <v>5330</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>45561.19791666666</v>
+        <v>45553.19791666666</v>
       </c>
       <c r="B21">
-        <v>5290</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>45561.20833333334</v>
+        <v>45553.20833333334</v>
       </c>
       <c r="B22">
-        <v>5410</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>45561.21875</v>
+        <v>45553.21875</v>
       </c>
       <c r="B23">
-        <v>5550</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
-        <v>45561.22916666666</v>
+        <v>45553.22916666666</v>
       </c>
       <c r="B24">
-        <v>5690</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
-        <v>45561.23958333334</v>
+        <v>45553.23958333334</v>
       </c>
       <c r="B25">
-        <v>5840</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
-        <v>45561.25</v>
+        <v>45553.25</v>
       </c>
       <c r="B26">
-        <v>5970</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
-        <v>45561.26041666666</v>
+        <v>45553.26041666666</v>
       </c>
       <c r="B27">
-        <v>6090</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
-        <v>45561.27083333334</v>
+        <v>45553.27083333334</v>
       </c>
       <c r="B28">
-        <v>6200</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>45561.28125</v>
+        <v>45553.28125</v>
       </c>
       <c r="B29">
-        <v>6280</v>
+        <v>6440</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>45561.29166666666</v>
+        <v>45553.29166666666</v>
       </c>
       <c r="B30">
-        <v>6350</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>45561.30208333334</v>
+        <v>45553.30208333334</v>
       </c>
       <c r="B31">
-        <v>6390</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>45561.3125</v>
+        <v>45553.3125</v>
       </c>
       <c r="B32">
-        <v>6400</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>45561.32291666666</v>
+        <v>45553.32291666666</v>
       </c>
       <c r="B33">
-        <v>6400</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>45561.33333333334</v>
+        <v>45553.33333333334</v>
       </c>
       <c r="B34">
-        <v>6390</v>
+        <v>6550</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>45561.34375</v>
+        <v>45553.34375</v>
       </c>
       <c r="B35">
-        <v>6360</v>
+        <v>6540</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>45561.35416666666</v>
+        <v>45553.35416666666</v>
       </c>
       <c r="B36">
-        <v>6300</v>
+        <v>6520</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
-        <v>45561.36458333334</v>
+        <v>45553.36458333334</v>
       </c>
       <c r="B37">
-        <v>6230</v>
+        <v>6480</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2">
-        <v>45561.375</v>
+        <v>45553.375</v>
       </c>
       <c r="B38">
-        <v>6150</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2">
-        <v>45561.38541666666</v>
+        <v>45553.38541666666</v>
       </c>
       <c r="B39">
-        <v>6060</v>
+        <v>6370</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2">
-        <v>45561.39583333334</v>
+        <v>45553.39583333334</v>
       </c>
       <c r="B40">
-        <v>5980</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="2">
-        <v>45561.40625</v>
+        <v>45553.40625</v>
       </c>
       <c r="B41">
-        <v>5900</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="2">
-        <v>45561.41666666666</v>
+        <v>45553.41666666666</v>
       </c>
       <c r="B42">
-        <v>5830</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2">
-        <v>45561.42708333334</v>
+        <v>45553.42708333334</v>
       </c>
       <c r="B43">
-        <v>5770</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="2">
-        <v>45561.4375</v>
+        <v>45553.4375</v>
       </c>
       <c r="B44">
-        <v>5710</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="2">
-        <v>45561.44791666666</v>
+        <v>45553.44791666666</v>
       </c>
       <c r="B45">
-        <v>5670</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="2">
-        <v>45561.45833333334</v>
+        <v>45553.45833333334</v>
       </c>
       <c r="B46">
-        <v>5640</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="2">
-        <v>45561.46875</v>
+        <v>45553.46875</v>
       </c>
       <c r="B47">
-        <v>5610</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="2">
-        <v>45561.47916666666</v>
+        <v>45553.47916666666</v>
       </c>
       <c r="B48">
-        <v>5580</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2">
-        <v>45561.48958333334</v>
+        <v>45553.48958333334</v>
       </c>
       <c r="B49">
-        <v>5570</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2">
-        <v>45561.5</v>
+        <v>45553.5</v>
       </c>
       <c r="B50">
-        <v>5550</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="2">
-        <v>45561.51041666666</v>
+        <v>45553.51041666666</v>
       </c>
       <c r="B51">
-        <v>5540</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="2">
-        <v>45561.52083333334</v>
+        <v>45553.52083333334</v>
       </c>
       <c r="B52">
-        <v>5540</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="2">
-        <v>45561.53125</v>
+        <v>45553.53125</v>
       </c>
       <c r="B53">
-        <v>5550</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2">
-        <v>45561.54166666666</v>
+        <v>45553.54166666666</v>
       </c>
       <c r="B54">
-        <v>5560</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="2">
-        <v>45561.55208333334</v>
+        <v>45553.55208333334</v>
       </c>
       <c r="B55">
-        <v>5590</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="2">
-        <v>45561.5625</v>
+        <v>45553.5625</v>
       </c>
       <c r="B56">
-        <v>5620</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="2">
-        <v>45561.57291666666</v>
+        <v>45553.57291666666</v>
       </c>
       <c r="B57">
-        <v>5660</v>
+        <v>6310</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="2">
-        <v>45561.58333333334</v>
+        <v>45553.58333333334</v>
       </c>
       <c r="B58">
-        <v>5690</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="2">
-        <v>45561.59375</v>
+        <v>45553.59375</v>
       </c>
       <c r="B59">
-        <v>5730</v>
+        <v>6360</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="2">
-        <v>45561.60416666666</v>
+        <v>45553.60416666666</v>
       </c>
       <c r="B60">
-        <v>5770</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="2">
-        <v>45561.61458333334</v>
+        <v>45553.61458333334</v>
       </c>
       <c r="B61">
-        <v>5810</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="2">
-        <v>45561.625</v>
+        <v>45553.625</v>
       </c>
       <c r="B62">
-        <v>5850</v>
+        <v>6460</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="2">
-        <v>45561.63541666666</v>
+        <v>45553.63541666666</v>
       </c>
       <c r="B63">
-        <v>5900</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="2">
-        <v>45561.64583333334</v>
+        <v>45553.64583333334</v>
       </c>
       <c r="B64">
-        <v>5950</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="2">
-        <v>45561.65625</v>
+        <v>45553.65625</v>
       </c>
       <c r="B65">
-        <v>6010</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="2">
-        <v>45561.66666666666</v>
+        <v>45553.66666666666</v>
       </c>
       <c r="B66">
-        <v>6080</v>
+        <v>6590</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="2">
-        <v>45561.67708333334</v>
+        <v>45553.67708333334</v>
       </c>
       <c r="B67">
-        <v>6160</v>
+        <v>6610</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="2">
-        <v>45561.6875</v>
+        <v>45553.6875</v>
       </c>
       <c r="B68">
-        <v>6240</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="2">
-        <v>45561.69791666666</v>
+        <v>45553.69791666666</v>
       </c>
       <c r="B69">
-        <v>6320</v>
+        <v>6650</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="2">
-        <v>45561.70833333334</v>
+        <v>45553.70833333334</v>
       </c>
       <c r="B70">
-        <v>6400</v>
+        <v>6680</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="2">
-        <v>45561.71875</v>
+        <v>45553.71875</v>
       </c>
       <c r="B71">
-        <v>6480</v>
+        <v>6710</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="2">
-        <v>45561.72916666666</v>
+        <v>45553.72916666666</v>
       </c>
       <c r="B72">
-        <v>6560</v>
+        <v>6750</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="2">
-        <v>45561.73958333334</v>
+        <v>45553.73958333334</v>
       </c>
       <c r="B73">
-        <v>6660</v>
+        <v>6810</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="2">
-        <v>45561.75</v>
+        <v>45553.75</v>
       </c>
       <c r="B74">
-        <v>6760</v>
+        <v>6880</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="2">
-        <v>45561.76041666666</v>
+        <v>45553.76041666666</v>
       </c>
       <c r="B75">
-        <v>6870</v>
+        <v>6950</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="2">
-        <v>45561.77083333334</v>
+        <v>45553.77083333334</v>
       </c>
       <c r="B76">
-        <v>6970</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="2">
-        <v>45561.78125</v>
+        <v>45553.78125</v>
       </c>
       <c r="B77">
-        <v>7060</v>
+        <v>7100</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2">
-        <v>45561.79166666666</v>
+        <v>45553.79166666666</v>
       </c>
       <c r="B78">
-        <v>7150</v>
+        <v>7170</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2">
-        <v>45561.80208333334</v>
+        <v>45553.80208333334</v>
       </c>
       <c r="B79">
         <v>7200</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2">
-        <v>45561.8125</v>
+        <v>45553.8125</v>
       </c>
       <c r="B80">
         <v>7200</v>
@@ -1029,63 +1029,63 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="2">
-        <v>45561.82291666666</v>
+        <v>45553.82291666666</v>
       </c>
       <c r="B81">
-        <v>7170</v>
+        <v>7180</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="2">
-        <v>45561.83333333334</v>
+        <v>45553.83333333334</v>
       </c>
       <c r="B82">
-        <v>7050</v>
+        <v>7070</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="2">
-        <v>45561.84375</v>
+        <v>45553.84375</v>
       </c>
       <c r="B83">
-        <v>6900</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="2">
-        <v>45561.85416666666</v>
+        <v>45553.85416666666</v>
       </c>
       <c r="B84">
-        <v>6770</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="2">
-        <v>45561.86458333334</v>
+        <v>45553.86458333334</v>
       </c>
       <c r="B85">
-        <v>6620</v>
+        <v>6660</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="2">
-        <v>45561.875</v>
+        <v>45553.875</v>
       </c>
       <c r="B86">
-        <v>6440</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="2">
-        <v>45561.88541666666</v>
+        <v>45553.88541666666</v>
       </c>
       <c r="B87">
-        <v>6300</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="2">
-        <v>45561.89583333334</v>
+        <v>45553.89583333334</v>
       </c>
       <c r="B88">
         <v>6160</v>
@@ -1093,42 +1093,42 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="2">
-        <v>45561.90625</v>
+        <v>45553.90625</v>
       </c>
       <c r="B89">
-        <v>6010</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="2">
-        <v>45561.91666666666</v>
+        <v>45553.91666666666</v>
       </c>
       <c r="B90">
-        <v>5860</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="2">
-        <v>45561.92708333334</v>
+        <v>45553.92708333334</v>
       </c>
       <c r="B91">
-        <v>5720</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="2">
-        <v>45561.9375</v>
+        <v>45553.9375</v>
       </c>
       <c r="B92">
-        <v>5600</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="2">
-        <v>45561.94791666666</v>
+        <v>45553.94791666666</v>
       </c>
       <c r="B93">
-        <v>5480</v>
+        <v>5600</v>
       </c>
     </row>
   </sheetData>
